--- a/revenue-streamlit/Revenue 2023 2032 simulation.xlsx
+++ b/revenue-streamlit/Revenue 2023 2032 simulation.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawan/Development/office/revenue-streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F7369D-1673-3E4F-94EE-D5DF4007A03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{18F7369D-1673-3E4F-94EE-D5DF4007A03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE670252-A83F-644A-91C2-23AA30B358D7}"/>
   <bookViews>
-    <workbookView xWindow="-22660" yWindow="9000" windowWidth="22660" windowHeight="14380" xr2:uid="{9DA9C85C-0230-484A-A9A5-3ABA148F8E1D}"/>
+    <workbookView xWindow="-19620" yWindow="-41700" windowWidth="45200" windowHeight="39460" activeTab="4" xr2:uid="{9DA9C85C-0230-484A-A9A5-3ABA148F8E1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="TE Office" sheetId="7" r:id="rId2"/>
-    <sheet name="IN OUT" sheetId="8" r:id="rId3"/>
-    <sheet name="Ampera" sheetId="6" r:id="rId4"/>
-    <sheet name="SH" sheetId="10" r:id="rId5"/>
-    <sheet name="Dago" sheetId="9" r:id="rId6"/>
-    <sheet name="Listrik" sheetId="2" r:id="rId7"/>
-    <sheet name="IT" sheetId="3" r:id="rId8"/>
-    <sheet name="Parkir" sheetId="4" r:id="rId9"/>
+    <sheet name="TE Office Old" sheetId="11" r:id="rId3"/>
+    <sheet name="IN OUT" sheetId="8" r:id="rId4"/>
+    <sheet name="Ampera" sheetId="6" r:id="rId5"/>
+    <sheet name="SH" sheetId="10" r:id="rId6"/>
+    <sheet name="Dago" sheetId="9" r:id="rId7"/>
+    <sheet name="Listrik" sheetId="2" r:id="rId8"/>
+    <sheet name="IT" sheetId="3" r:id="rId9"/>
+    <sheet name="Parkir" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="116">
   <si>
     <t>Ampera</t>
   </si>
@@ -408,6 +409,12 @@
   <si>
     <t>Dago Condotel</t>
   </si>
+  <si>
+    <t>SC Medco (per tahun)</t>
+  </si>
+  <si>
+    <t>Before 2022</t>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +428,7 @@
     <numFmt numFmtId="167" formatCode="0,00#"/>
     <numFmt numFmtId="168" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -551,6 +558,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -983,7 +997,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1297,6 +1311,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1304,7 +1321,143 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{CE309EA9-2ACD-FD45-9E22-4DD1ECE3D7F0}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="287">
+  <dxfs count="286">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
@@ -1636,6 +1789,152 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
@@ -1671,6 +1970,130 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1698,6 +2121,42 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1724,6 +2183,393 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
@@ -1759,155 +2605,24 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1929,9 +2644,24 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1953,9 +2683,24 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1977,13 +2722,74 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2004,6 +2810,40 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2024,577 +2864,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2633,7 +2940,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2672,7 +2978,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2711,7 +3016,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2734,34 +3038,6 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2854,24 +3130,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2892,6 +3150,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2930,6 +3189,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2968,6 +3228,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3006,6 +3267,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3028,6 +3290,34 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3120,6 +3410,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3140,7 +3448,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3179,7 +3486,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3218,7 +3524,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3257,7 +3562,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3280,34 +3584,6 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3400,24 +3676,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3438,6 +3696,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3476,6 +3735,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3514,6 +3774,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3552,6 +3813,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3574,6 +3836,34 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3666,6 +3956,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3686,7 +3994,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3725,7 +4032,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3764,7 +4070,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3803,7 +4108,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3826,34 +4130,6 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3946,24 +4222,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3984,6 +4242,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -4022,6 +4281,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -4060,6 +4320,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -4098,6 +4359,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -4120,6 +4382,34 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4212,6 +4502,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4232,7 +4540,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -4271,7 +4578,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -4310,7 +4616,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -4349,7 +4654,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -4372,34 +4676,6 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4474,311 +4750,6 @@
       </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -5747,37 +5718,37 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>319090058680.66931</c:v>
+                  <c:v>318400736080.66931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>333726974278.32971</c:v>
+                  <c:v>333537651678.32971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>361287978320.97528</c:v>
+                  <c:v>359479028385.64252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>363484014434.07043</c:v>
+                  <c:v>362952311488.48706</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>365726754079.65582</c:v>
+                  <c:v>365108783183.58191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>377740335710.91028</c:v>
+                  <c:v>378482319217.88757</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>379909748890.24854</c:v>
+                  <c:v>379942340334.99603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>381679773184.5036</c:v>
+                  <c:v>381042340334.99603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>384987707084.1593</c:v>
+                  <c:v>383336462834.65173</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>385990351717.37781</c:v>
+                  <c:v>384334503667.87024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>387590351717.37781</c:v>
+                  <c:v>384934503667.87024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5817,37 +5788,37 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>318693569080.66931</c:v>
+                  <c:v>318004246480.66931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>323850216670.00977</c:v>
+                  <c:v>323660894070.00977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>348376969727.00275</c:v>
+                  <c:v>347333144031.66998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>349091160047.61304</c:v>
+                  <c:v>349746289422.0296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>350336223853.19836</c:v>
+                  <c:v>350484359077.12445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>348778872756.99811</c:v>
+                  <c:v>349711461383.9754</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350357872667.92853</c:v>
+                  <c:v>351150099532.67609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>351599263362.18365</c:v>
+                  <c:v>352250099532.67609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>354691969911.83929</c:v>
+                  <c:v>354342806082.33173</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>355622872095.0578</c:v>
+                  <c:v>355273708265.55023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>357222872095.0578</c:v>
+                  <c:v>355873708265.55023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6289,37 +6260,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.80649534844370618</c:v>
+                  <c:v>0.80648025591983208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84026537663964185</c:v>
+                  <c:v>0.84027360892539138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90220391872154071</c:v>
+                  <c:v>0.89843040357971071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9044747124226673</c:v>
+                  <c:v>0.89943787070972747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90451175770853975</c:v>
+                  <c:v>0.89947903213847469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92648493577571611</c:v>
+                  <c:v>0.92448668561480107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92570461114658731</c:v>
+                  <c:v>0.92220901797165855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92721293054160059</c:v>
+                  <c:v>0.92220901797165855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92721293054160059</c:v>
+                  <c:v>0.92220901797165855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92721293054160059</c:v>
+                  <c:v>0.92220901797165855</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92721293054160059</c:v>
+                  <c:v>0.92220901797165855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6396,6 +6367,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-993B-7C46-8C6F-6A005A07CA5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1 original</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'TE Office Old'!$C$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.80649672049133092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84029007349689022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90223684786453839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90450764156566521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90454880299441243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92955645647073892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92727878882759629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92727878882759629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92727878882759629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92727878882759629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92727878882759629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C00F-9D44-A93F-5B70C9A5F345}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6796,31 +6834,31 @@
                   <c:v>257601884350.43256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>277388735203.60236</c:v>
+                  <c:v>276123610963.60236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278166515859.30579</c:v>
+                  <c:v>276479683539.30579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>277485942859.30579</c:v>
+                  <c:v>275719836739.30579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>286339746626.41614</c:v>
+                  <c:v>285149141506.41614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>286482307868.04254</c:v>
+                  <c:v>284722672448.04254</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>287010941468.04254</c:v>
+                  <c:v>284722672448.04254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>288218875367.69824</c:v>
+                  <c:v>285916794947.69824</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>288621520000.91675</c:v>
+                  <c:v>286314835780.91675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>288621520000.91675</c:v>
+                  <c:v>286314835780.91675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9171,8 +9209,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="217095" y="1248290"/>
-          <a:ext cx="1085470" cy="434188"/>
+          <a:off x="226702" y="1227937"/>
+          <a:ext cx="1066800" cy="434731"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9295,6 +9333,239 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542736</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>151967</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310E0986-5351-F041-AB91-DBB9628D4424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="226702" y="1227937"/>
+          <a:ext cx="1066800" cy="434731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>SCENARIO 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542736</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>151967</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC36A4F-D305-9C4B-90B4-E21F843D618F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="226702" y="3541399"/>
+          <a:ext cx="1066800" cy="434731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>SCENARIO 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180731</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71143C66-7B01-034F-88F7-7188338F9A46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="255466" y="989134"/>
+          <a:ext cx="1066800" cy="434731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>SCENARIO 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>ORIGINAL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9445,7 +9716,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9597,7 +9868,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0EB90EA2-A127-E547-9D74-1813E6DCC22C}" name="Table2" displayName="Table2" ref="B12:M23" totalsRowCount="1" headerRowDxfId="286" dataDxfId="285" totalsRowDxfId="284" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0EB90EA2-A127-E547-9D74-1813E6DCC22C}" name="Table2" displayName="Table2" ref="B12:M23" totalsRowCount="1" headerRowDxfId="285" dataDxfId="284" totalsRowDxfId="283" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B12:M22" xr:uid="{0EB90EA2-A127-E547-9D74-1813E6DCC22C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9613,25 +9884,25 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{23DA6FCF-5860-0F44-9DF1-11C0318051C4}" name="Products" totalsRowLabel="Total" dataDxfId="283" totalsRowDxfId="282"/>
-    <tableColumn id="12" xr3:uid="{85475C21-3329-2B45-8444-CA94C08A4946}" name="2022" totalsRowFunction="sum" dataDxfId="281" totalsRowDxfId="280" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{39720F4C-EDD5-7B48-9B96-FD9488CF7B6F}" name="2023" totalsRowFunction="sum" dataDxfId="279" totalsRowDxfId="278" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{0994F7B4-B62D-534F-9417-0249F38ADE67}" name="2024" totalsRowFunction="sum" dataDxfId="277" totalsRowDxfId="276" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{BF5E00BE-9F6A-514F-89E9-FCB3BA9FBE7E}" name="2025" totalsRowFunction="sum" dataDxfId="275" totalsRowDxfId="274" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{558C3BB7-E01B-4041-A52C-470E15F68511}" name="2026" totalsRowFunction="sum" dataDxfId="273" totalsRowDxfId="272" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F85D5229-9BC7-6441-95EE-D5D053C638B7}" name="2027" totalsRowFunction="sum" dataDxfId="271" totalsRowDxfId="270" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{0358E158-5480-1945-AEC6-9C9BE0041972}" name="2028" totalsRowFunction="sum" dataDxfId="269" totalsRowDxfId="268" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{AD2569E3-CD58-DB43-9407-E9740AD84292}" name="2029" totalsRowFunction="sum" dataDxfId="267" totalsRowDxfId="266" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{7561F271-4CC3-5147-8982-B20E91E439A9}" name="2030" totalsRowFunction="sum" dataDxfId="265" totalsRowDxfId="264" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{BECB626F-1389-A74E-BD36-D45CF00BA3A5}" name="2031" totalsRowFunction="sum" dataDxfId="263" totalsRowDxfId="262" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{B473C967-9544-AA40-854E-CE88ACD5AB6C}" name="2032" totalsRowFunction="sum" dataDxfId="261" totalsRowDxfId="260" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{23DA6FCF-5860-0F44-9DF1-11C0318051C4}" name="Products" totalsRowLabel="Total" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="12" xr3:uid="{85475C21-3329-2B45-8444-CA94C08A4946}" name="2022" totalsRowFunction="sum" dataDxfId="280" totalsRowDxfId="279" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{39720F4C-EDD5-7B48-9B96-FD9488CF7B6F}" name="2023" totalsRowFunction="sum" dataDxfId="278" totalsRowDxfId="277" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{0994F7B4-B62D-534F-9417-0249F38ADE67}" name="2024" totalsRowFunction="sum" dataDxfId="276" totalsRowDxfId="275" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{BF5E00BE-9F6A-514F-89E9-FCB3BA9FBE7E}" name="2025" totalsRowFunction="sum" dataDxfId="274" totalsRowDxfId="273" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{558C3BB7-E01B-4041-A52C-470E15F68511}" name="2026" totalsRowFunction="sum" dataDxfId="272" totalsRowDxfId="271" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{F85D5229-9BC7-6441-95EE-D5D053C638B7}" name="2027" totalsRowFunction="sum" dataDxfId="270" totalsRowDxfId="269" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{0358E158-5480-1945-AEC6-9C9BE0041972}" name="2028" totalsRowFunction="sum" dataDxfId="268" totalsRowDxfId="267" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{AD2569E3-CD58-DB43-9407-E9740AD84292}" name="2029" totalsRowFunction="sum" dataDxfId="266" totalsRowDxfId="265" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{7561F271-4CC3-5147-8982-B20E91E439A9}" name="2030" totalsRowFunction="sum" dataDxfId="264" totalsRowDxfId="263" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{BECB626F-1389-A74E-BD36-D45CF00BA3A5}" name="2031" totalsRowFunction="sum" dataDxfId="262" totalsRowDxfId="261" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{B473C967-9544-AA40-854E-CE88ACD5AB6C}" name="2032" totalsRowFunction="sum" dataDxfId="260" totalsRowDxfId="259" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA0280A8-10F6-B84E-AFAB-5A8BAB02AAF6}" name="Table3" displayName="Table3" ref="B3:P10" totalsRowCount="1" headerRowDxfId="69" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA0280A8-10F6-B84E-AFAB-5A8BAB02AAF6}" name="Table3" displayName="Table3" ref="B3:P10" totalsRowCount="1" headerRowDxfId="70" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma">
   <autoFilter ref="B3:P9" xr:uid="{AA0280A8-10F6-B84E-AFAB-5A8BAB02AAF6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9650,31 +9921,31 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{B434975C-754F-5441-8944-9D99F067F04D}" name="Produk" totalsRowLabel="Total" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="15" xr3:uid="{8E5BD366-1155-CE49-BBB4-3F27339B0B75}" name="2019" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="14" xr3:uid="{FB0FC5E1-B965-6742-807F-7E3890DBDC3F}" name="2020" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{794A7C86-2D33-554F-9012-765C40A5C94A}" name="2021" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{72BB7C90-7123-8548-AD32-67D10EFB4941}" name="2022" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{D1916A1A-7235-5944-952D-C5B2D3DDE06E}" name="2023" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{DCCF41AD-21FF-E24A-BBC9-25283DF564ED}" name="2024" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{2D2438E8-19A3-DC49-8708-643DF91EF6CA}" name="2025" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{D2DA396E-5667-2944-A522-E55C0615C95B}" name="2026" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EDE1AE77-74CD-4C4A-AB30-33B40B187F4D}" name="2027" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{B434975C-754F-5441-8944-9D99F067F04D}" name="Produk" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{8E5BD366-1155-CE49-BBB4-3F27339B0B75}" name="2019" dataDxfId="66" totalsRowDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{FB0FC5E1-B965-6742-807F-7E3890DBDC3F}" name="2020" dataDxfId="65" totalsRowDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{794A7C86-2D33-554F-9012-765C40A5C94A}" name="2021" dataDxfId="64" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{72BB7C90-7123-8548-AD32-67D10EFB4941}" name="2022" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{D1916A1A-7235-5944-952D-C5B2D3DDE06E}" name="2023" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{DCCF41AD-21FF-E24A-BBC9-25283DF564ED}" name="2024" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{2D2438E8-19A3-DC49-8708-643DF91EF6CA}" name="2025" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{D2DA396E-5667-2944-A522-E55C0615C95B}" name="2026" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EDE1AE77-74CD-4C4A-AB30-33B40B187F4D}" name="2027" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="6" dataCellStyle="Comma">
       <totalsRowFormula>Table3[[#Totals],[2026]]+K12</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E3A4E7A4-9B95-9C45-AD94-5E313CD83314}" name="2028" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{E3A4E7A4-9B95-9C45-AD94-5E313CD83314}" name="2028" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="5" dataCellStyle="Comma">
       <totalsRowFormula>Table3[[#Totals],[2027]]+L12</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5396A41B-238E-934A-B88C-05665FF32EAB}" name="2029" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{5396A41B-238E-934A-B88C-05665FF32EAB}" name="2029" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="4" dataCellStyle="Comma">
       <totalsRowFormula>Table3[[#Totals],[2028]]+M12</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4B95DC7B-03C0-554B-8874-CA493F12F898}" name="2030" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4B95DC7B-03C0-554B-8874-CA493F12F898}" name="2030" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="3" dataCellStyle="Comma">
       <totalsRowFormula>Table3[[#Totals],[2029]]+N12</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7AFBF0D8-EFCB-BD40-9797-A8DA640BE121}" name="2031" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{7AFBF0D8-EFCB-BD40-9797-A8DA640BE121}" name="2031" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="2" dataCellStyle="Comma">
       <totalsRowFormula>Table3[[#Totals],[2030]]+O12</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F50F8622-B86E-DE4B-8344-97514986A226}" name="2032" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{F50F8622-B86E-DE4B-8344-97514986A226}" name="2032" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="1" dataCellStyle="Comma">
       <totalsRowFormula>Table3[[#Totals],[2031]]+P12</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9683,7 +9954,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{661A9F8E-E811-6C41-A2C0-889C04640E30}" name="Table4" displayName="Table4" ref="B3:P8" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35" totalsRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{661A9F8E-E811-6C41-A2C0-889C04640E30}" name="Table4" displayName="Table4" ref="B3:P8" totalsRowCount="1" headerRowDxfId="52" dataDxfId="51" totalsRowDxfId="50">
   <autoFilter ref="B3:P7" xr:uid="{661A9F8E-E811-6C41-A2C0-889C04640E30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9702,37 +9973,37 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{17D68DC3-C711-5040-B376-B5F51979E29B}" name="Produk" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{968DDC5B-E089-D843-A52D-7172723D8D2A}" name="2019" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{78BB3794-9BF6-8D40-9094-953658171EEA}" name="2020" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{A8272FC9-0AD5-BF4D-989E-3C102689BF68}" name="2021" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{B4B4FEAA-CB59-9346-9F47-FF72671E2EE8}" name="2022" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{231FA472-4B76-4041-8A73-8F9C4AEBBE8F}" name="2023" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{2E117CD9-E0EC-D746-814E-EC6AAAC8290B}" name="2024" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{17D68DC3-C711-5040-B376-B5F51979E29B}" name="Produk" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{968DDC5B-E089-D843-A52D-7172723D8D2A}" name="2019" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{78BB3794-9BF6-8D40-9094-953658171EEA}" name="2020" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{A8272FC9-0AD5-BF4D-989E-3C102689BF68}" name="2021" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{B4B4FEAA-CB59-9346-9F47-FF72671E2EE8}" name="2022" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{231FA472-4B76-4041-8A73-8F9C4AEBBE8F}" name="2023" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{2E117CD9-E0EC-D746-814E-EC6AAAC8290B}" name="2024" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>Table4[[#Totals],[2023]]+(H2-G2)*100*$I$11</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F927B8CF-7FCD-114C-9E2D-B44F29CFF80D}" name="2025" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="5" xr3:uid="{F927B8CF-7FCD-114C-9E2D-B44F29CFF80D}" name="2025" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>Table4[[#Totals],[2024]]+(I2-H2)*100*$I$11</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{07104418-C75B-EE40-9CDC-49C0D474463F}" name="2026" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="6" xr3:uid="{07104418-C75B-EE40-9CDC-49C0D474463F}" name="2026" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>Table4[[#Totals],[2025]]+(J2-I2)*100*$I$11</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DD42A9E1-1AC5-A249-A036-872FCF3A21BF}" name="2027" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="7" xr3:uid="{DD42A9E1-1AC5-A249-A036-872FCF3A21BF}" name="2027" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>Table4[[#Totals],[2026]]+(K2-J2)*100*$I$11</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BB3B38F4-7B6D-4A4B-A663-5855598CB7D4}" name="2028" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="8" xr3:uid="{BB3B38F4-7B6D-4A4B-A663-5855598CB7D4}" name="2028" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>Table4[[#Totals],[2027]]+(L2-K2)*100*$I$11</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9F83B130-E9C9-904F-89DD-F5CF18D1A800}" name="2029" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="9" xr3:uid="{9F83B130-E9C9-904F-89DD-F5CF18D1A800}" name="2029" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>Table4[[#Totals],[2028]]+(M2-L2)*100*$I$11</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{61DE65DA-614C-5D46-9E42-B760A7726F49}" name="2030" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="10" xr3:uid="{61DE65DA-614C-5D46-9E42-B760A7726F49}" name="2030" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>Table4[[#Totals],[2029]]+(N2-M2)*100*$I$11</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{F9EEB720-D487-8B44-9A5E-608CDE69A8E5}" name="2031" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="11" xr3:uid="{F9EEB720-D487-8B44-9A5E-608CDE69A8E5}" name="2031" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>Table4[[#Totals],[2030]]+(O2-N2)*100*$I$11</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BC9CD56F-EA9F-9B44-89E9-D5ADAD5581E1}" name="2032" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="12" xr3:uid="{BC9CD56F-EA9F-9B44-89E9-D5ADAD5581E1}" name="2032" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>Table4[[#Totals],[2031]]+(P2-O2)*100*$I$11</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9741,16 +10012,16 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B641AB30-8712-0E4C-81D4-86E531C2B479}" name="Table8" displayName="Table8" ref="H10:I11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B641AB30-8712-0E4C-81D4-86E531C2B479}" name="Table8" displayName="Table8" ref="H10:I11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="H10:I11" xr:uid="{B641AB30-8712-0E4C-81D4-86E531C2B479}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{65DFC2D3-6A20-C24D-8C3C-769903C381DA}" name="2.35%" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{65DFC2D3-6A20-C24D-8C3C-769903C381DA}" name="2.35%" dataDxfId="17">
       <calculatedColumnFormula>Table4[[#Totals],[2023]]-Table4[[#Totals],[2022]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BD08AFDC-A92D-1848-A18B-79184B6FFB70}" name="1%" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{BD08AFDC-A92D-1848-A18B-79184B6FFB70}" name="1%" dataDxfId="16">
       <calculatedColumnFormula>H11/(H10*100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9759,7 +10030,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1E7C2B9-CC09-1F4C-AA96-318D7B39B804}" name="Table1" displayName="Table1" ref="B2:M6" totalsRowShown="0" headerRowDxfId="259" tableBorderDxfId="258" headerRowCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1E7C2B9-CC09-1F4C-AA96-318D7B39B804}" name="Table1" displayName="Table1" ref="B2:M6" totalsRowShown="0" headerRowDxfId="258" tableBorderDxfId="257" headerRowCellStyle="Comma">
   <autoFilter ref="B2:M6" xr:uid="{E1E7C2B9-CC09-1F4C-AA96-318D7B39B804}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9775,7 +10046,7 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{D8CEC505-5A9A-C44C-8790-B14B27FBB7FB}" name="Property" dataDxfId="257"/>
+    <tableColumn id="1" xr3:uid="{D8CEC505-5A9A-C44C-8790-B14B27FBB7FB}" name="Property" dataDxfId="256"/>
     <tableColumn id="2" xr3:uid="{9ABCC90A-BD0D-A541-B580-DF5852DC5A91}" name="2022"/>
     <tableColumn id="3" xr3:uid="{EAA55AE6-2F81-4942-B521-BE73C06C24C2}" name="2023"/>
     <tableColumn id="4" xr3:uid="{15467A5D-46B5-1C48-9EDA-1FE519034F37}" name="2024"/>
@@ -9793,7 +10064,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7DF35404-3107-2F4A-8FAE-287244C3C7B1}" name="Table211" displayName="Table211" ref="B27:M38" totalsRowCount="1" headerRowDxfId="256" dataDxfId="255" totalsRowDxfId="254" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7DF35404-3107-2F4A-8FAE-287244C3C7B1}" name="Table211" displayName="Table211" ref="B27:M38" totalsRowCount="1" headerRowDxfId="255" dataDxfId="254" totalsRowDxfId="253" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B27:M37" xr:uid="{7DF35404-3107-2F4A-8FAE-287244C3C7B1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9809,25 +10080,25 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{01BE954E-A887-ED47-9A07-199A4652794F}" name="Products" totalsRowLabel="Total" dataDxfId="253" totalsRowDxfId="252"/>
-    <tableColumn id="12" xr3:uid="{D2689BC0-FE51-1C4F-BEFD-AB4DACE89943}" name="2022" totalsRowFunction="sum" dataDxfId="251" totalsRowDxfId="250" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{6A567BA1-6DE6-8348-8535-A146D583581C}" name="2023" totalsRowFunction="sum" dataDxfId="249" totalsRowDxfId="248" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{40543FAE-4431-7141-91FF-6CA497E19814}" name="2024" totalsRowFunction="sum" dataDxfId="247" totalsRowDxfId="246" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{5F9F5E8A-DEB0-1240-8A75-FA8B64F35675}" name="2025" totalsRowFunction="sum" dataDxfId="245" totalsRowDxfId="244" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{376D47ED-3CE1-6040-9561-9EFFF63DE629}" name="2026" totalsRowFunction="sum" dataDxfId="243" totalsRowDxfId="242" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{5902029A-D689-CB43-9DD3-888C62F95D64}" name="2027" totalsRowFunction="sum" dataDxfId="241" totalsRowDxfId="240" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{DEFF5695-DFAA-0C42-B996-7914A6534765}" name="2028" totalsRowFunction="sum" dataDxfId="239" totalsRowDxfId="238" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{DA964F6B-FAD7-074D-AFFE-A731AC6A5ADF}" name="2029" totalsRowFunction="sum" dataDxfId="237" totalsRowDxfId="236" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{8011E7A7-6FB4-1344-B606-557A75FC6E3E}" name="2030" totalsRowFunction="sum" dataDxfId="235" totalsRowDxfId="234" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{9EF28CD6-825D-E24F-8E30-EFD6674D59E1}" name="2031" totalsRowFunction="sum" dataDxfId="233" totalsRowDxfId="232" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{30CA743D-2942-4544-9A3E-BC18F898D37D}" name="2032" totalsRowFunction="sum" dataDxfId="231" totalsRowDxfId="230" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{01BE954E-A887-ED47-9A07-199A4652794F}" name="Products" totalsRowLabel="Total" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="12" xr3:uid="{D2689BC0-FE51-1C4F-BEFD-AB4DACE89943}" name="2022" totalsRowFunction="sum" dataDxfId="250" totalsRowDxfId="249" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{6A567BA1-6DE6-8348-8535-A146D583581C}" name="2023" totalsRowFunction="sum" dataDxfId="248" totalsRowDxfId="247" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{40543FAE-4431-7141-91FF-6CA497E19814}" name="2024" totalsRowFunction="sum" dataDxfId="246" totalsRowDxfId="245" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{5F9F5E8A-DEB0-1240-8A75-FA8B64F35675}" name="2025" totalsRowFunction="sum" dataDxfId="244" totalsRowDxfId="243" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{376D47ED-3CE1-6040-9561-9EFFF63DE629}" name="2026" totalsRowFunction="sum" dataDxfId="242" totalsRowDxfId="241" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{5902029A-D689-CB43-9DD3-888C62F95D64}" name="2027" totalsRowFunction="sum" dataDxfId="240" totalsRowDxfId="239" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{DEFF5695-DFAA-0C42-B996-7914A6534765}" name="2028" totalsRowFunction="sum" dataDxfId="238" totalsRowDxfId="237" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{DA964F6B-FAD7-074D-AFFE-A731AC6A5ADF}" name="2029" totalsRowFunction="sum" dataDxfId="236" totalsRowDxfId="235" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{8011E7A7-6FB4-1344-B606-557A75FC6E3E}" name="2030" totalsRowFunction="sum" dataDxfId="234" totalsRowDxfId="233" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{9EF28CD6-825D-E24F-8E30-EFD6674D59E1}" name="2031" totalsRowFunction="sum" dataDxfId="232" totalsRowDxfId="231" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{30CA743D-2942-4544-9A3E-BC18F898D37D}" name="2032" totalsRowFunction="sum" dataDxfId="230" totalsRowDxfId="229" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2E727DF7-F97B-9146-82F5-0C89D01DB7D2}" name="Table367" displayName="Table367" ref="B3:P5" headerRowDxfId="229" dataDxfId="228" totalsRowDxfId="227" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2E727DF7-F97B-9146-82F5-0C89D01DB7D2}" name="Table367" displayName="Table367" ref="B3:P5" headerRowDxfId="228" dataDxfId="227" totalsRowDxfId="226" dataCellStyle="Comma">
   <autoFilter ref="B3:P5" xr:uid="{AC3ABCF1-FE08-0748-954C-3FA531C01C9E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9846,48 +10117,48 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{99F340BB-11FC-2C48-B69C-142164A888EA}" name="Produk" totalsRowLabel="Total" dataDxfId="226"/>
-    <tableColumn id="2" xr3:uid="{2B1CCD52-0B57-AE43-9C86-45DD61C25858}" name="2019" totalsRowFunction="sum" dataDxfId="225" totalsRowDxfId="224" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$10</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{99F340BB-11FC-2C48-B69C-142164A888EA}" name="Produk" totalsRowLabel="Total" dataDxfId="225"/>
+    <tableColumn id="2" xr3:uid="{2B1CCD52-0B57-AE43-9C86-45DD61C25858}" name="2019" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B3959DCD-8B88-6743-B7BD-90FB273FDD75}" name="2020" totalsRowFunction="sum" dataDxfId="223" totalsRowDxfId="222" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$10</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{B3959DCD-8B88-6743-B7BD-90FB273FDD75}" name="2020" totalsRowFunction="sum" dataDxfId="224" totalsRowDxfId="223" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5C2B67C1-E6FB-C342-8D11-D84155D57722}" name="2021" totalsRowFunction="sum" dataDxfId="221" totalsRowDxfId="220" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$10</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{5C2B67C1-E6FB-C342-8D11-D84155D57722}" name="2021" totalsRowFunction="sum" dataDxfId="222" totalsRowDxfId="221" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BD4B3AD5-EF20-2E41-AAE9-C449FBE6EBED}" name="2022" totalsRowFunction="sum" dataDxfId="219" totalsRowDxfId="218" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$10</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{BD4B3AD5-EF20-2E41-AAE9-C449FBE6EBED}" name="2022" totalsRowFunction="sum" dataDxfId="220" totalsRowDxfId="219" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0BCB1F53-3AFA-9248-B92C-FD192EA39765}" name="2023" totalsRowFunction="sum" dataDxfId="217" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$14</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{0BCB1F53-3AFA-9248-B92C-FD192EA39765}" name="2023" totalsRowFunction="sum" dataDxfId="218" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{619BD53B-7FEB-E244-8BE1-662D18A71EC8}" name="2024" dataDxfId="216" totalsRowDxfId="215" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$14</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{619BD53B-7FEB-E244-8BE1-662D18A71EC8}" name="2024" dataDxfId="217" totalsRowDxfId="216" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C2DAE3E4-F421-2646-9C3B-D49B961BFAE8}" name="2025" dataDxfId="214" totalsRowDxfId="213" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$14</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{C2DAE3E4-F421-2646-9C3B-D49B961BFAE8}" name="2025" dataDxfId="215" totalsRowDxfId="214" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{86937C3C-E018-DD45-AC99-F0436F21D37E}" name="2026" dataDxfId="212" totalsRowDxfId="211" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$14</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{86937C3C-E018-DD45-AC99-F0436F21D37E}" name="2026" dataDxfId="213" totalsRowDxfId="212" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0ED2701F-7272-7F4F-BDAC-5A0B36F34735}" name="2027" dataDxfId="210" totalsRowDxfId="209" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$14</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{0ED2701F-7272-7F4F-BDAC-5A0B36F34735}" name="2027" dataDxfId="211" totalsRowDxfId="210" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{924953E8-0B08-084C-88A4-2E9D4ED12687}" name="2028" dataDxfId="208" totalsRowDxfId="207" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$14</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{924953E8-0B08-084C-88A4-2E9D4ED12687}" name="2028" dataDxfId="209" totalsRowDxfId="208" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{CEC3F315-2D2D-2E49-86D2-AC75553FF7CC}" name="2029" dataDxfId="206" totalsRowDxfId="205" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$14</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{CEC3F315-2D2D-2E49-86D2-AC75553FF7CC}" name="2029" dataDxfId="207" totalsRowDxfId="206" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3E32D8D0-438C-544C-AE07-B7766903BA6C}" name="2030" dataDxfId="204" totalsRowDxfId="203" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$14</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{3E32D8D0-438C-544C-AE07-B7766903BA6C}" name="2030" dataDxfId="205" totalsRowDxfId="204" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{253B6EAB-1714-D944-9EC6-E76956CEEA2E}" name="2031" dataDxfId="202" totalsRowDxfId="201" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$14</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{253B6EAB-1714-D944-9EC6-E76956CEEA2E}" name="2031" dataDxfId="203" totalsRowDxfId="202" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{5944E335-1D68-4F4D-9F09-0FF522318C19}" name="2032" dataDxfId="200" totalsRowDxfId="199" dataCellStyle="Comma">
-      <calculatedColumnFormula>$C$14</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{5944E335-1D68-4F4D-9F09-0FF522318C19}" name="2032" dataDxfId="201" totalsRowDxfId="200" dataCellStyle="Comma">
+      <calculatedColumnFormula>$C$17</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9895,7 +10166,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A3C4A74E-3C42-A747-9006-8829BF142A68}" name="Table36712" displayName="Table36712" ref="B3:P5" headerRowDxfId="198" dataDxfId="197" totalsRowDxfId="196" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A3C4A74E-3C42-A747-9006-8829BF142A68}" name="Table36712" displayName="Table36712" ref="B3:P5" headerRowDxfId="199" dataDxfId="198" totalsRowDxfId="197" dataCellStyle="Comma">
   <autoFilter ref="B3:P5" xr:uid="{AC3ABCF1-FE08-0748-954C-3FA531C01C9E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9914,47 +10185,47 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{1BFD87E0-307E-A346-9C12-D59589250C88}" name="Produk" totalsRowLabel="Total" dataDxfId="195"/>
-    <tableColumn id="2" xr3:uid="{968525AF-9A75-2E44-BD06-AB6B9951BB35}" name="2019" totalsRowFunction="sum" dataDxfId="194" totalsRowDxfId="193" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{1BFD87E0-307E-A346-9C12-D59589250C88}" name="Produk" totalsRowLabel="Total" dataDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{968525AF-9A75-2E44-BD06-AB6B9951BB35}" name="2019" totalsRowFunction="sum" dataDxfId="195" totalsRowDxfId="194" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{77B1E53B-BEFB-A94B-B3A4-961E7F2EDB56}" name="2020" totalsRowFunction="sum" dataDxfId="192" totalsRowDxfId="191" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{77B1E53B-BEFB-A94B-B3A4-961E7F2EDB56}" name="2020" totalsRowFunction="sum" dataDxfId="193" totalsRowDxfId="192" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{96632A6A-B9AD-F349-B2A8-AF5BB8455E0D}" name="2021" totalsRowFunction="sum" dataDxfId="190" totalsRowDxfId="189" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{96632A6A-B9AD-F349-B2A8-AF5BB8455E0D}" name="2021" totalsRowFunction="sum" dataDxfId="191" totalsRowDxfId="190" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FF7AB7B8-0072-BC40-AF54-9293570E7C76}" name="2022" totalsRowFunction="sum" dataDxfId="188" totalsRowDxfId="187" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{FF7AB7B8-0072-BC40-AF54-9293570E7C76}" name="2022" totalsRowFunction="sum" dataDxfId="189" totalsRowDxfId="188" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5DD61822-2AB9-3149-BF22-B919056AABCB}" name="2023" totalsRowFunction="sum" dataDxfId="186" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{5DD61822-2AB9-3149-BF22-B919056AABCB}" name="2023" totalsRowFunction="sum" dataDxfId="187" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3773122B-9B13-084F-B2AF-167F2BD53E5E}" name="2024" dataDxfId="185" totalsRowDxfId="184" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{3773122B-9B13-084F-B2AF-167F2BD53E5E}" name="2024" dataDxfId="186" totalsRowDxfId="185" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E69D5601-AC96-A14E-920B-763C0145CB77}" name="2025" dataDxfId="183" totalsRowDxfId="182" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{E69D5601-AC96-A14E-920B-763C0145CB77}" name="2025" dataDxfId="184" totalsRowDxfId="183" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{18DB03C9-598D-F249-B274-D3EF93826CC5}" name="2026" dataDxfId="181" totalsRowDxfId="180" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{18DB03C9-598D-F249-B274-D3EF93826CC5}" name="2026" dataDxfId="182" totalsRowDxfId="181" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8D797980-B65E-A648-AA40-32BC96023834}" name="2027" dataDxfId="179" totalsRowDxfId="178" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{8D797980-B65E-A648-AA40-32BC96023834}" name="2027" dataDxfId="180" totalsRowDxfId="179" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{851A9367-4BAD-9E48-BC90-556E33B13381}" name="2028" dataDxfId="177" totalsRowDxfId="176" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{851A9367-4BAD-9E48-BC90-556E33B13381}" name="2028" dataDxfId="178" totalsRowDxfId="177" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{8FF7E486-9DA2-624E-BE69-F34407DB907C}" name="2029" dataDxfId="175" totalsRowDxfId="174" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{8FF7E486-9DA2-624E-BE69-F34407DB907C}" name="2029" dataDxfId="176" totalsRowDxfId="175" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{10581223-ACA5-C44A-93A3-C7BB88D90041}" name="2030" dataDxfId="173" totalsRowDxfId="172" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{10581223-ACA5-C44A-93A3-C7BB88D90041}" name="2030" dataDxfId="174" totalsRowDxfId="173" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{FD519FB0-316F-794B-B2D5-6EC639574CCC}" name="2031" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{FD519FB0-316F-794B-B2D5-6EC639574CCC}" name="2031" dataDxfId="172" totalsRowDxfId="171" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{EF1B48BD-4B23-C048-984F-969A36EC6CE1}" name="2032" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{EF1B48BD-4B23-C048-984F-969A36EC6CE1}" name="2032" dataDxfId="170" totalsRowDxfId="169" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9963,50 +10234,50 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E6BE8819-74EF-0243-83D9-EC696A1D351F}" name="Table3671213" displayName="Table3671213" ref="B8:P10" headerRowDxfId="167" dataDxfId="166" totalsRowDxfId="165" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E6BE8819-74EF-0243-83D9-EC696A1D351F}" name="Table3671213" displayName="Table3671213" ref="B8:P10" headerRowDxfId="168" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="Comma">
   <autoFilter ref="B8:P10" xr:uid="{E6BE8819-74EF-0243-83D9-EC696A1D351F}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{D0D2885A-4D5E-4E46-B852-6808DA59D313}" name="Produk" totalsRowLabel="Total" dataDxfId="164"/>
-    <tableColumn id="2" xr3:uid="{1CB01F6E-B1ED-D64D-B0BD-23E3E53023F6}" name="2019" totalsRowFunction="sum" dataDxfId="163" totalsRowDxfId="162" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{D0D2885A-4D5E-4E46-B852-6808DA59D313}" name="Produk" totalsRowLabel="Total" dataDxfId="165"/>
+    <tableColumn id="2" xr3:uid="{1CB01F6E-B1ED-D64D-B0BD-23E3E53023F6}" name="2019" totalsRowFunction="sum" dataDxfId="164" totalsRowDxfId="163" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DCB192C3-91DC-3E45-AEC4-E3D2C137A2D5}" name="2020" totalsRowFunction="sum" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{DCB192C3-91DC-3E45-AEC4-E3D2C137A2D5}" name="2020" totalsRowFunction="sum" dataDxfId="162" totalsRowDxfId="161" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E6C180DE-2772-2441-93FB-B7588E5B6492}" name="2021" totalsRowFunction="sum" dataDxfId="159" totalsRowDxfId="158" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{E6C180DE-2772-2441-93FB-B7588E5B6492}" name="2021" totalsRowFunction="sum" dataDxfId="160" totalsRowDxfId="159" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{469CD3CF-6462-744C-8BAC-E6F03647D632}" name="2022" totalsRowFunction="sum" dataDxfId="157" totalsRowDxfId="156" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{469CD3CF-6462-744C-8BAC-E6F03647D632}" name="2022" totalsRowFunction="sum" dataDxfId="158" totalsRowDxfId="157" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7F9C2994-4595-BC48-95E7-29BC35B73576}" name="2023" totalsRowFunction="sum" dataDxfId="155" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{7F9C2994-4595-BC48-95E7-29BC35B73576}" name="2023" totalsRowFunction="sum" dataDxfId="156" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8B6255D9-4CA7-434B-A5E8-FBACB2C83FDD}" name="2024" dataDxfId="154" totalsRowDxfId="153" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{8B6255D9-4CA7-434B-A5E8-FBACB2C83FDD}" name="2024" dataDxfId="155" totalsRowDxfId="154" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F160CBDA-6556-D34B-AFEF-9A4DA3F946CA}" name="2025" dataDxfId="152" totalsRowDxfId="151" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{F160CBDA-6556-D34B-AFEF-9A4DA3F946CA}" name="2025" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{79196D24-F3A6-5F45-ACB0-1B5911C1DAA0}" name="2026" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{79196D24-F3A6-5F45-ACB0-1B5911C1DAA0}" name="2026" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3A202091-9A8A-F349-AFAC-D3575E626EFF}" name="2027" dataDxfId="148" totalsRowDxfId="147" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{3A202091-9A8A-F349-AFAC-D3575E626EFF}" name="2027" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{43710266-79F5-7448-ACB8-EA6AF60CF213}" name="2028" dataDxfId="146" totalsRowDxfId="145" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{43710266-79F5-7448-ACB8-EA6AF60CF213}" name="2028" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4D0F16A8-89B3-9941-B93B-FECD100FF689}" name="2029" dataDxfId="144" totalsRowDxfId="143" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{4D0F16A8-89B3-9941-B93B-FECD100FF689}" name="2029" dataDxfId="145" totalsRowDxfId="144" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{6D5B7FE3-4080-6944-BA37-48AE65C1E6B7}" name="2030" dataDxfId="142" totalsRowDxfId="141" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{6D5B7FE3-4080-6944-BA37-48AE65C1E6B7}" name="2030" dataDxfId="143" totalsRowDxfId="142" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{53FC9BDF-6F34-4444-9FB2-388FA7A90D9D}" name="2031" dataDxfId="140" totalsRowDxfId="139" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{53FC9BDF-6F34-4444-9FB2-388FA7A90D9D}" name="2031" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{761F26F3-7DA1-C04C-836A-10D25F8EBECB}" name="2032" dataDxfId="138" totalsRowDxfId="137" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{761F26F3-7DA1-C04C-836A-10D25F8EBECB}" name="2032" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10015,7 +10286,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3F473109-AB90-2849-8845-1716835FF166}" name="Table36710" displayName="Table36710" ref="B3:P5" headerRowDxfId="136" dataDxfId="135" totalsRowDxfId="134" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3F473109-AB90-2849-8845-1716835FF166}" name="Table36710" displayName="Table36710" ref="B3:P5" headerRowDxfId="137" dataDxfId="136" totalsRowDxfId="135" dataCellStyle="Comma">
   <autoFilter ref="B3:P5" xr:uid="{AC3ABCF1-FE08-0748-954C-3FA531C01C9E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10034,47 +10305,47 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6430FCAC-20A0-D747-85F5-8F09948DD449}" name="Produk" totalsRowLabel="Total" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{BF9FD117-9D89-6545-A8DD-0203102DDDAC}" name="2019" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="131" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{6430FCAC-20A0-D747-85F5-8F09948DD449}" name="Produk" totalsRowLabel="Total" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{BF9FD117-9D89-6545-A8DD-0203102DDDAC}" name="2019" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2818C4A9-7E04-0B46-95F9-DE5A3B3080A5}" name="2020" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="129" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{2818C4A9-7E04-0B46-95F9-DE5A3B3080A5}" name="2020" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA0DEA62-D652-F241-9090-9124BB9D4F97}" name="2021" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{CA0DEA62-D652-F241-9090-9124BB9D4F97}" name="2021" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B4FF4845-3D08-7646-9D46-E1C192E017C8}" name="2022" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{B4FF4845-3D08-7646-9D46-E1C192E017C8}" name="2022" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F37F8168-78DB-294A-BE79-CEFAF8321122}" name="2023" totalsRowFunction="sum" dataDxfId="124" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{F37F8168-78DB-294A-BE79-CEFAF8321122}" name="2023" totalsRowFunction="sum" dataDxfId="125" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{313A481D-E690-5E40-9356-32C8A89361D8}" name="2024" dataDxfId="123" totalsRowDxfId="122" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{313A481D-E690-5E40-9356-32C8A89361D8}" name="2024" dataDxfId="124" totalsRowDxfId="123" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BEDFD046-BF60-8547-8C20-D084BA6D3A8F}" name="2025" dataDxfId="121" totalsRowDxfId="120" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{BEDFD046-BF60-8547-8C20-D084BA6D3A8F}" name="2025" dataDxfId="122" totalsRowDxfId="121" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{93344613-7617-C24D-8D5D-C6205EDB39C0}" name="2026" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{93344613-7617-C24D-8D5D-C6205EDB39C0}" name="2026" dataDxfId="120" totalsRowDxfId="119" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A1141682-AB8B-4045-93AA-7AF20DD95FCF}" name="2027" dataDxfId="117" totalsRowDxfId="116" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{A1141682-AB8B-4045-93AA-7AF20DD95FCF}" name="2027" dataDxfId="118" totalsRowDxfId="117" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{848922CD-D37A-784E-B406-FF7DB6A3FFD9}" name="2028" dataDxfId="115" totalsRowDxfId="114" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{848922CD-D37A-784E-B406-FF7DB6A3FFD9}" name="2028" dataDxfId="116" totalsRowDxfId="115" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D6840AD2-CB80-424A-9FC0-F598D076488C}" name="2029" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{D6840AD2-CB80-424A-9FC0-F598D076488C}" name="2029" dataDxfId="114" totalsRowDxfId="113" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3FC5F7F1-EFBB-6B42-B020-BD479DDEF54C}" name="2030" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{3FC5F7F1-EFBB-6B42-B020-BD479DDEF54C}" name="2030" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{59B3D745-E99A-C048-91B4-C30EE30FE030}" name="2031" dataDxfId="109" totalsRowDxfId="108" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{59B3D745-E99A-C048-91B4-C30EE30FE030}" name="2031" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E7C7A760-9A50-EF4E-9F9A-04F5939B53B3}" name="2032" dataDxfId="107" totalsRowDxfId="106" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{E7C7A760-9A50-EF4E-9F9A-04F5939B53B3}" name="2032" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="Comma">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10083,7 +10354,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AC3ABCF1-FE08-0748-954C-3FA531C01C9E}" name="Table36" displayName="Table36" ref="B3:P4" headerRowDxfId="105" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AC3ABCF1-FE08-0748-954C-3FA531C01C9E}" name="Table36" displayName="Table36" ref="B3:P4" headerRowDxfId="106" dataDxfId="105" totalsRowDxfId="104" dataCellStyle="Comma">
   <autoFilter ref="B3:P4" xr:uid="{AC3ABCF1-FE08-0748-954C-3FA531C01C9E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10102,37 +10373,37 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{18B6C45A-2B52-9F4A-B0F3-F9786673BA63}" name="Produk" totalsRowLabel="Total" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{0FE0173E-4A0A-C040-A5BF-13AFD6F74E10}" name="2019" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{AA2A7934-1ED5-1841-9585-036B084CAE84}" name="2020" totalsRowFunction="sum" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{513FEEBB-6A8F-574A-8F63-64E55E4DB319}" name="2021" totalsRowFunction="sum" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{BED0975A-DF8E-C54C-B0E5-F85B60CA1335}" name="2022" totalsRowFunction="sum" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{AB8F1B16-FC68-774A-B5DD-4EE17748FA9B}" name="2023" totalsRowFunction="sum" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{D2F57DD7-6B8F-444D-A81B-D11878E66625}" name="2024" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{18B6C45A-2B52-9F4A-B0F3-F9786673BA63}" name="Produk" totalsRowLabel="Total" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{0FE0173E-4A0A-C040-A5BF-13AFD6F74E10}" name="2019" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{AA2A7934-1ED5-1841-9585-036B084CAE84}" name="2020" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{513FEEBB-6A8F-574A-8F63-64E55E4DB319}" name="2021" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{BED0975A-DF8E-C54C-B0E5-F85B60CA1335}" name="2022" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{AB8F1B16-FC68-774A-B5DD-4EE17748FA9B}" name="2023" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{D2F57DD7-6B8F-444D-A81B-D11878E66625}" name="2024" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Comma">
       <calculatedColumnFormula>Table36[[#This Row],[2023]]+(H2-G2)*100*$H$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1F02D350-400D-8F4D-B198-B879C4D29351}" name="2025" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{1F02D350-400D-8F4D-B198-B879C4D29351}" name="2025" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Comma">
       <calculatedColumnFormula>Table36[[#This Row],[2024]]+(I2-H2)*100*$H$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7B59BB08-B683-F54E-8520-C0BE68887345}" name="2026" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{7B59BB08-B683-F54E-8520-C0BE68887345}" name="2026" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Comma">
       <calculatedColumnFormula>Table36[[#This Row],[2025]]+(J2-I2)*100*$H$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E67B878D-18EA-7548-9411-AA947352680D}" name="2027" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{E67B878D-18EA-7548-9411-AA947352680D}" name="2027" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Comma">
       <calculatedColumnFormula>Table36[[#This Row],[2026]]+(K2-J2)*100*$H$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{909164A4-A24D-FC4A-85E7-81ADE8AE50D2}" name="2028" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{909164A4-A24D-FC4A-85E7-81ADE8AE50D2}" name="2028" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Comma">
       <calculatedColumnFormula>Table36[[#This Row],[2027]]+(L2-K2)*100*$H$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{AA2289B0-A74F-F047-9745-BBDFD3F7D472}" name="2029" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{AA2289B0-A74F-F047-9745-BBDFD3F7D472}" name="2029" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Comma">
       <calculatedColumnFormula>Table36[[#This Row],[2028]]+(M2-L2)*100*$H$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{5A77795F-5802-6049-BD3D-E5F2DC4167E7}" name="2030" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{5A77795F-5802-6049-BD3D-E5F2DC4167E7}" name="2030" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Comma">
       <calculatedColumnFormula>Table36[[#This Row],[2029]]+(N2-M2)*100*$H$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{91BF1624-0775-4B4D-AEB5-F4CCE8DFB0BD}" name="2031" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{91BF1624-0775-4B4D-AEB5-F4CCE8DFB0BD}" name="2031" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Comma">
       <calculatedColumnFormula>Table36[[#This Row],[2030]]+(O2-N2)*100*$H$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{724851DA-4475-6F4C-B969-ADA0E125A99B}" name="2032" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{724851DA-4475-6F4C-B969-ADA0E125A99B}" name="2032" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Comma">
       <calculatedColumnFormula>Table36[[#This Row],[2031]]+(P2-O2)*100*$H$9</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10141,16 +10412,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E812B4D9-0275-0B41-9591-9D0DF8BF194E}" name="Table7" displayName="Table7" ref="G8:H9" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E812B4D9-0275-0B41-9591-9D0DF8BF194E}" name="Table7" displayName="Table7" ref="G8:H9" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="G8:H9" xr:uid="{E812B4D9-0275-0B41-9591-9D0DF8BF194E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{148F11F0-DF7D-5F47-A179-57908E691920}" name="2.35%" dataDxfId="71">
+    <tableColumn id="1" xr3:uid="{148F11F0-DF7D-5F47-A179-57908E691920}" name="2.35%" dataDxfId="72">
       <calculatedColumnFormula array="1">Table36[2023]-Table36[2022]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A1A7ADBB-EEE7-B44F-8642-79DB0BA2C9B2}" name="1%" dataDxfId="70">
+    <tableColumn id="2" xr3:uid="{A1A7ADBB-EEE7-B44F-8642-79DB0BA2C9B2}" name="1%" dataDxfId="71">
       <calculatedColumnFormula>G9/(G8*100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10460,8 +10731,8 @@
   </sheetPr>
   <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" zoomScale="141" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10517,47 +10788,47 @@
       </c>
       <c r="C3" s="20">
         <f>'TE Office'!C9</f>
-        <v>0.80649534844370618</v>
+        <v>0.80648025591983208</v>
       </c>
       <c r="D3" s="20">
         <f>'TE Office'!D9</f>
-        <v>0.84026537663964185</v>
+        <v>0.84027360892539138</v>
       </c>
       <c r="E3" s="20">
         <f>'TE Office'!E9</f>
-        <v>0.90220391872154071</v>
+        <v>0.89843040357971071</v>
       </c>
       <c r="F3" s="20">
         <f>'TE Office'!F9</f>
-        <v>0.9044747124226673</v>
+        <v>0.89943787070972747</v>
       </c>
       <c r="G3" s="20">
         <f>'TE Office'!G9</f>
-        <v>0.90451175770853975</v>
+        <v>0.89947903213847469</v>
       </c>
       <c r="H3" s="20">
         <f>'TE Office'!H9</f>
-        <v>0.92648493577571611</v>
+        <v>0.92448668561480107</v>
       </c>
       <c r="I3" s="20">
         <f>'TE Office'!I9</f>
-        <v>0.92570461114658731</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="J3" s="20">
         <f>'TE Office'!J9</f>
-        <v>0.92721293054160059</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="K3" s="20">
         <f>'TE Office'!K9</f>
-        <v>0.92721293054160059</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="L3" s="20">
         <f>'TE Office'!L9</f>
-        <v>0.92721293054160059</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="M3" s="20">
         <f>'TE Office'!M9</f>
-        <v>0.92721293054160059</v>
+        <v>0.92220901797165855</v>
       </c>
     </row>
     <row r="4" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10777,39 +11048,39 @@
       </c>
       <c r="E13" s="8">
         <f>'TE Office'!E7</f>
-        <v>277388735203.60236</v>
+        <v>276123610963.60236</v>
       </c>
       <c r="F13" s="8">
         <f>'TE Office'!F7</f>
-        <v>278166515859.30579</v>
+        <v>276479683539.30579</v>
       </c>
       <c r="G13" s="8">
         <f>'TE Office'!G7</f>
-        <v>277485942859.30579</v>
+        <v>275719836739.30579</v>
       </c>
       <c r="H13" s="8">
         <f>'TE Office'!H7</f>
-        <v>286339746626.41614</v>
+        <v>285149141506.41614</v>
       </c>
       <c r="I13" s="8">
         <f>'TE Office'!I7</f>
-        <v>286482307868.04254</v>
+        <v>284722672448.04254</v>
       </c>
       <c r="J13" s="8">
         <f>'TE Office'!J7</f>
-        <v>287010941468.04254</v>
+        <v>284722672448.04254</v>
       </c>
       <c r="K13" s="8">
         <f>'TE Office'!K7</f>
-        <v>288218875367.69824</v>
+        <v>285916794947.69824</v>
       </c>
       <c r="L13" s="8">
         <f>'TE Office'!L7</f>
-        <v>288621520000.91675</v>
+        <v>286314835780.91675</v>
       </c>
       <c r="M13" s="8">
         <f>'TE Office'!M7</f>
-        <v>288621520000.91675</v>
+        <v>286314835780.91675</v>
       </c>
       <c r="N13" s="22"/>
     </row>
@@ -10866,39 +11137,39 @@
       </c>
       <c r="E15" s="8" cm="1">
         <f t="array" ref="E15">Table36[2024]</f>
-        <v>19689295616.715302</v>
+        <v>19488442332.488911</v>
       </c>
       <c r="F15" s="8" cm="1">
         <f t="array" ref="F15">Table36[2025]</f>
-        <v>19809900279.349739</v>
+        <v>19541950158.087807</v>
       </c>
       <c r="G15" s="8" cm="1">
         <f t="array" ref="G15">Table36[2026]</f>
-        <v>19811867800.310638</v>
+        <v>19544136292.488808</v>
       </c>
       <c r="H15" s="8" cm="1">
         <f t="array" ref="H15">Table36[2027]</f>
-        <v>20978890470.174236</v>
+        <v>20872323705.240086</v>
       </c>
       <c r="I15" s="8" cm="1">
         <f t="array" ref="I15">Table36[2028]</f>
-        <v>20937446463.792358</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="J15" s="8" cm="1">
         <f t="array" ref="J15">Table36[2029]</f>
-        <v>21017555172.782658</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="K15" s="8" cm="1">
         <f t="array" ref="K15">Table36[2030]</f>
-        <v>21017555172.782658</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="L15" s="8" cm="1">
         <f t="array" ref="L15">Table36[2031]</f>
-        <v>21017555172.782658</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="M15" s="8" cm="1">
         <f t="array" ref="M15">Table36[2032]</f>
-        <v>21017555172.782658</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="N15" s="23"/>
     </row>
@@ -10966,39 +11237,39 @@
       </c>
       <c r="E17" s="8">
         <f>Table4[[#Totals],[2024]]</f>
-        <v>9645327521.1890831</v>
+        <v>9491677710.0826931</v>
       </c>
       <c r="F17" s="8">
         <f>Table4[[#Totals],[2025]]</f>
-        <v>9737588315.9463348</v>
+        <v>9532610410.4248867</v>
       </c>
       <c r="G17" s="8">
         <f>Table4[[#Totals],[2026]]</f>
-        <v>9739093440.5707798</v>
+        <v>9534282771.1187172</v>
       </c>
       <c r="H17" s="8">
         <f>Table4[[#Totals],[2027]]</f>
-        <v>10631848634.851328</v>
+        <v>10550326625.562725</v>
       </c>
       <c r="I17" s="8">
         <f>Table4[[#Totals],[2028]]</f>
-        <v>10600144578.945076</v>
+        <v>10457786547.243435</v>
       </c>
       <c r="J17" s="8">
         <f>Table4[[#Totals],[2029]]</f>
-        <v>10661426564.209816</v>
+        <v>10457786547.243435</v>
       </c>
       <c r="K17" s="8">
         <f>Table4[[#Totals],[2030]]</f>
-        <v>10661426564.209816</v>
+        <v>10457786547.243435</v>
       </c>
       <c r="L17" s="8">
         <f>Table4[[#Totals],[2031]]</f>
-        <v>10661426564.209816</v>
+        <v>10457786547.243435</v>
       </c>
       <c r="M17" s="8">
         <f>Table4[[#Totals],[2032]]</f>
-        <v>10661426564.209816</v>
+        <v>10457786547.243435</v>
       </c>
       <c r="N17" s="23"/>
     </row>
@@ -11016,39 +11287,39 @@
       </c>
       <c r="E18" s="8">
         <f>SH!H4</f>
-        <v>5000000000</v>
+        <v>5500000000</v>
       </c>
       <c r="F18" s="8">
         <f>SH!I4</f>
-        <v>5500000000</v>
+        <v>6000000000</v>
       </c>
       <c r="G18" s="8">
         <f>SH!J4</f>
-        <v>6000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="H18" s="8">
         <f>SH!K4</f>
-        <v>6500000000</v>
+        <v>7500000000</v>
       </c>
       <c r="I18" s="8">
         <f>SH!L4</f>
-        <v>7000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="J18" s="8">
         <f>SH!M4</f>
-        <v>7500000000</v>
+        <v>8500000000</v>
       </c>
       <c r="K18" s="8">
         <f>SH!N4</f>
-        <v>8000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="L18" s="8">
         <f>SH!O4</f>
-        <v>8000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="M18" s="8">
         <f>SH!P4</f>
-        <v>8000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="N18" s="23"/>
     </row>
@@ -11097,47 +11368,47 @@
       </c>
       <c r="C20" s="8">
         <f>Ampera!C4</f>
-        <v>8071906956</v>
+        <v>7382584356</v>
       </c>
       <c r="D20" s="8">
         <f>Ampera!D4</f>
-        <v>8071906956</v>
+        <v>7382584356</v>
       </c>
       <c r="E20" s="8">
         <f>Ampera!E4</f>
-        <v>8071906956</v>
+        <v>7382584356</v>
       </c>
       <c r="F20" s="8">
         <f>Ampera!F4</f>
-        <v>8071906956</v>
+        <v>8199964357.2000008</v>
       </c>
       <c r="G20" s="8">
         <f>Ampera!G4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="H20" s="8">
         <f>Ampera!H4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="I20" s="8">
         <f>Ampera!I4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="J20" s="8">
         <f>Ampera!J4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="K20" s="8">
         <f>Ampera!K4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="L20" s="8">
         <f>Ampera!L4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="M20" s="8">
         <f>Ampera!M4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="N20" s="23"/>
     </row>
@@ -11190,7 +11461,7 @@
       </c>
       <c r="D22" s="8">
         <f>Dago!G4</f>
-        <v>8000000000</v>
+        <v>8500000000</v>
       </c>
       <c r="E22" s="8">
         <f>Dago!H4</f>
@@ -11198,23 +11469,23 @@
       </c>
       <c r="F22" s="8">
         <f>Dago!I4</f>
-        <v>9000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="G22" s="8">
         <f>Dago!J4</f>
-        <v>10000000000</v>
+        <v>10500000000</v>
       </c>
       <c r="H22" s="8">
         <f>Dago!K4</f>
-        <v>10000000000</v>
+        <v>11000000000</v>
       </c>
       <c r="I22" s="8">
         <f>Dago!L4</f>
-        <v>11000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="J22" s="8">
         <f>Dago!M4</f>
-        <v>11000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="K22" s="8">
         <f>Dago!N4</f>
@@ -11226,7 +11497,7 @@
       </c>
       <c r="M22" s="8">
         <f>Dago!P4</f>
-        <v>13000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="N22" s="23"/>
     </row>
@@ -11236,90 +11507,90 @@
       </c>
       <c r="C23" s="9">
         <f>SUBTOTAL(109,Table2[2022])</f>
-        <v>319090058680.66931</v>
+        <v>318400736080.66931</v>
       </c>
       <c r="D23" s="9">
         <f>SUBTOTAL(109,Table2[2023])</f>
-        <v>333726974278.32971</v>
+        <v>333537651678.32971</v>
       </c>
       <c r="E23" s="9">
         <f>SUBTOTAL(109,Table2[2024])</f>
-        <v>361287978320.97528</v>
+        <v>359479028385.64252</v>
       </c>
       <c r="F23" s="9">
         <f>SUBTOTAL(109,Table2[2025])</f>
-        <v>363484014434.07043</v>
+        <v>362952311488.48706</v>
       </c>
       <c r="G23" s="9">
         <f>SUBTOTAL(109,Table2[2026])</f>
-        <v>365726754079.65582</v>
+        <v>365108783183.58191</v>
       </c>
       <c r="H23" s="9">
         <f>SUBTOTAL(109,Table2[2027])</f>
-        <v>377740335710.91028</v>
+        <v>378482319217.88757</v>
       </c>
       <c r="I23" s="9">
         <f>SUBTOTAL(109,Table2[2028])</f>
-        <v>379909748890.24854</v>
+        <v>379942340334.99603</v>
       </c>
       <c r="J23" s="9">
         <f>SUBTOTAL(109,Table2[2029])</f>
-        <v>381679773184.5036</v>
+        <v>381042340334.99603</v>
       </c>
       <c r="K23" s="9">
         <f>SUBTOTAL(109,Table2[2030])</f>
-        <v>384987707084.1593</v>
+        <v>383336462834.65173</v>
       </c>
       <c r="L23" s="9">
         <f>SUBTOTAL(109,Table2[2031])</f>
-        <v>385990351717.37781</v>
+        <v>384334503667.87024</v>
       </c>
       <c r="M23" s="9">
         <f>SUBTOTAL(109,Table2[2032])</f>
-        <v>387590351717.37781</v>
+        <v>384934503667.87024</v>
       </c>
       <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="8">
         <f>Table2[[#Totals],[2023]]/14750</f>
-        <v>22625557.578191847</v>
+        <v>22612722.147683371</v>
       </c>
       <c r="E24" s="8">
         <f>Table2[[#Totals],[2024]]/14750</f>
-        <v>24494100.225150868</v>
+        <v>24371459.551568985</v>
       </c>
       <c r="F24" s="8">
         <f>Table2[[#Totals],[2025]]/14750</f>
-        <v>24642984.029428504</v>
+        <v>24606936.372100819</v>
       </c>
       <c r="G24" s="8">
         <f>Table2[[#Totals],[2026]]/14750</f>
-        <v>24795034.174891919</v>
+        <v>24753137.842954706</v>
       </c>
       <c r="H24" s="8">
         <f>Table2[[#Totals],[2027]]/14750</f>
-        <v>25609514.285485443</v>
+        <v>25659818.252060175</v>
       </c>
       <c r="I24" s="8">
         <f>Table2[[#Totals],[2028]]/14750</f>
-        <v>25756593.145101596</v>
+        <v>25758802.734576002</v>
       </c>
       <c r="J24" s="8">
         <f>Table2[[#Totals],[2029]]/14750</f>
-        <v>25876594.792169735</v>
+        <v>25833379.005762443</v>
       </c>
       <c r="K24" s="8">
         <f>Table2[[#Totals],[2030]]/14750</f>
-        <v>26100861.497231141</v>
+        <v>25988912.734552659</v>
       </c>
       <c r="L24" s="8">
         <f>Table2[[#Totals],[2031]]/14750</f>
-        <v>26168837.404567987</v>
+        <v>26056576.519855611</v>
       </c>
       <c r="M24" s="8">
         <f>Table2[[#Totals],[2032]]/14750</f>
-        <v>26277311.980839174</v>
+        <v>26097254.485957306</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11499,39 +11770,39 @@
       </c>
       <c r="E30" s="8" cm="1">
         <f t="array" ref="E30">Table36[2024]</f>
-        <v>19689295616.715302</v>
+        <v>19488442332.488911</v>
       </c>
       <c r="F30" s="8" cm="1">
         <f t="array" ref="F30">Table36[2025]</f>
-        <v>19809900279.349739</v>
+        <v>19541950158.087807</v>
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">Table36[2026]</f>
-        <v>19811867800.310638</v>
+        <v>19544136292.488808</v>
       </c>
       <c r="H30" s="8" cm="1">
         <f t="array" ref="H30">Table36[2027]</f>
-        <v>20978890470.174236</v>
+        <v>20872323705.240086</v>
       </c>
       <c r="I30" s="8" cm="1">
         <f t="array" ref="I30">Table36[2028]</f>
-        <v>20937446463.792358</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="J30" s="8" cm="1">
         <f t="array" ref="J30">Table36[2029]</f>
-        <v>21017555172.782658</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="K30" s="8" cm="1">
         <f t="array" ref="K30">Table36[2030]</f>
-        <v>21017555172.782658</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="L30" s="8" cm="1">
         <f t="array" ref="L30">Table36[2031]</f>
-        <v>21017555172.782658</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="M30" s="8" cm="1">
         <f t="array" ref="M30">Table36[2032]</f>
-        <v>21017555172.782658</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="N30" s="23"/>
     </row>
@@ -11599,39 +11870,39 @@
       </c>
       <c r="E32" s="8">
         <f>Table4[[#Totals],[2024]]</f>
-        <v>9645327521.1890831</v>
+        <v>9491677710.0826931</v>
       </c>
       <c r="F32" s="8">
         <f>Table4[[#Totals],[2025]]</f>
-        <v>9737588315.9463348</v>
+        <v>9532610410.4248867</v>
       </c>
       <c r="G32" s="8">
         <f>Table4[[#Totals],[2026]]</f>
-        <v>9739093440.5707798</v>
+        <v>9534282771.1187172</v>
       </c>
       <c r="H32" s="8">
         <f>Table4[[#Totals],[2027]]</f>
-        <v>10631848634.851328</v>
+        <v>10550326625.562725</v>
       </c>
       <c r="I32" s="8">
         <f>Table4[[#Totals],[2028]]</f>
-        <v>10600144578.945076</v>
+        <v>10457786547.243435</v>
       </c>
       <c r="J32" s="8">
         <f>Table4[[#Totals],[2029]]</f>
-        <v>10661426564.209816</v>
+        <v>10457786547.243435</v>
       </c>
       <c r="K32" s="8">
         <f>Table4[[#Totals],[2030]]</f>
-        <v>10661426564.209816</v>
+        <v>10457786547.243435</v>
       </c>
       <c r="L32" s="8">
         <f>Table4[[#Totals],[2031]]</f>
-        <v>10661426564.209816</v>
+        <v>10457786547.243435</v>
       </c>
       <c r="M32" s="8">
         <f>Table4[[#Totals],[2032]]</f>
-        <v>10661426564.209816</v>
+        <v>10457786547.243435</v>
       </c>
       <c r="N32" s="23"/>
     </row>
@@ -11730,47 +12001,47 @@
       </c>
       <c r="C35" s="8">
         <f>Ampera!C4</f>
-        <v>8071906956</v>
+        <v>7382584356</v>
       </c>
       <c r="D35" s="8">
         <f>Ampera!D4</f>
-        <v>8071906956</v>
+        <v>7382584356</v>
       </c>
       <c r="E35" s="8">
         <f>Ampera!E4</f>
-        <v>8071906956</v>
+        <v>7382584356</v>
       </c>
       <c r="F35" s="8">
         <f>Ampera!F4</f>
-        <v>8071906956</v>
+        <v>8199964357.2000008</v>
       </c>
       <c r="G35" s="8">
         <f>Ampera!G4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="H35" s="8">
         <f>Ampera!H4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="I35" s="8">
         <f>Ampera!I4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="J35" s="8">
         <f>Ampera!J4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="K35" s="8">
         <f>Ampera!K4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="L35" s="8">
         <f>Ampera!L4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="M35" s="8">
         <f>Ampera!M4</f>
-        <v>8896666956</v>
+        <v>9017344357.2000008</v>
       </c>
       <c r="N35" s="23"/>
     </row>
@@ -11823,7 +12094,7 @@
       </c>
       <c r="D37" s="8">
         <f>Dago!G4</f>
-        <v>8000000000</v>
+        <v>8500000000</v>
       </c>
       <c r="E37" s="8">
         <f>Dago!H4</f>
@@ -11831,23 +12102,23 @@
       </c>
       <c r="F37" s="8">
         <f>Dago!I4</f>
-        <v>9000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="G37" s="8">
         <f>Dago!J4</f>
-        <v>10000000000</v>
+        <v>10500000000</v>
       </c>
       <c r="H37" s="8">
         <f>Dago!K4</f>
-        <v>10000000000</v>
+        <v>11000000000</v>
       </c>
       <c r="I37" s="8">
         <f>Dago!L4</f>
-        <v>11000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="J37" s="8">
         <f>Dago!M4</f>
-        <v>11000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="K37" s="8">
         <f>Dago!N4</f>
@@ -11859,7 +12130,7 @@
       </c>
       <c r="M37" s="8">
         <f>Dago!P4</f>
-        <v>13000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="N37" s="23"/>
     </row>
@@ -11869,90 +12140,90 @@
       </c>
       <c r="C38" s="9">
         <f>SUBTOTAL(109,Table211[2022])</f>
-        <v>318693569080.66931</v>
+        <v>318004246480.66931</v>
       </c>
       <c r="D38" s="9">
         <f>SUBTOTAL(109,Table211[2023])</f>
-        <v>323850216670.00977</v>
+        <v>323660894070.00977</v>
       </c>
       <c r="E38" s="9">
         <f>SUBTOTAL(109,Table211[2024])</f>
-        <v>348376969727.00275</v>
+        <v>347333144031.66998</v>
       </c>
       <c r="F38" s="9">
         <f>SUBTOTAL(109,Table211[2025])</f>
-        <v>349091160047.61304</v>
+        <v>349746289422.0296</v>
       </c>
       <c r="G38" s="9">
         <f>SUBTOTAL(109,Table211[2026])</f>
-        <v>350336223853.19836</v>
+        <v>350484359077.12445</v>
       </c>
       <c r="H38" s="9">
         <f>SUBTOTAL(109,Table211[2027])</f>
-        <v>348778872756.99811</v>
+        <v>349711461383.9754</v>
       </c>
       <c r="I38" s="9">
         <f>SUBTOTAL(109,Table211[2028])</f>
-        <v>350357872667.92853</v>
+        <v>351150099532.67609</v>
       </c>
       <c r="J38" s="9">
         <f>SUBTOTAL(109,Table211[2029])</f>
-        <v>351599263362.18365</v>
+        <v>352250099532.67609</v>
       </c>
       <c r="K38" s="9">
         <f>SUBTOTAL(109,Table211[2030])</f>
-        <v>354691969911.83929</v>
+        <v>354342806082.33173</v>
       </c>
       <c r="L38" s="9">
         <f>SUBTOTAL(109,Table211[2031])</f>
-        <v>355622872095.0578</v>
+        <v>355273708265.55023</v>
       </c>
       <c r="M38" s="9">
         <f>SUBTOTAL(109,Table211[2032])</f>
-        <v>357222872095.0578</v>
+        <v>355873708265.55023</v>
       </c>
       <c r="N38" s="24"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D39" s="8">
         <f>Table211[[#Totals],[2023]]/14750</f>
-        <v>21955946.892882019</v>
+        <v>21943111.462373544</v>
       </c>
       <c r="E39" s="8">
         <f>Table211[[#Totals],[2024]]/14750</f>
-        <v>23618777.608610354</v>
+        <v>23548009.764858983</v>
       </c>
       <c r="F39" s="8">
         <f>Table211[[#Totals],[2025]]/14750</f>
-        <v>23667197.291363597</v>
+        <v>23711612.842171498</v>
       </c>
       <c r="G39" s="8">
         <f>Table211[[#Totals],[2026]]/14750</f>
-        <v>23751608.396827009</v>
+        <v>23761651.462855894</v>
       </c>
       <c r="H39" s="8">
         <f>Table211[[#Totals],[2027]]/14750</f>
-        <v>23646025.27166089</v>
+        <v>23709251.61925257</v>
       </c>
       <c r="I39" s="8">
         <f>Table211[[#Totals],[2028]]/14750</f>
-        <v>23753076.113079902</v>
+        <v>23806786.408994988</v>
       </c>
       <c r="J39" s="8">
         <f>Table211[[#Totals],[2029]]/14750</f>
-        <v>23837238.194046348</v>
+        <v>23881362.680181429</v>
       </c>
       <c r="K39" s="8">
         <f>Table211[[#Totals],[2030]]/14750</f>
-        <v>24046913.214361984</v>
+        <v>24023241.090327576</v>
       </c>
       <c r="L39" s="8">
         <f>Table211[[#Totals],[2031]]/14750</f>
-        <v>24110025.226783581</v>
+        <v>24086353.102749169</v>
       </c>
       <c r="M39" s="8">
         <f>Table211[[#Totals],[2032]]/14750</f>
-        <v>24218499.803054765</v>
+        <v>24127031.068850864</v>
       </c>
     </row>
   </sheetData>
@@ -12089,6 +12360,371 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DFD6F6-6879-5349-9B08-2B5BECC68B7E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:Q19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="170" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16" width="17.5" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="43">
+        <f>Summary!$C$3</f>
+        <v>0.80648025591983208</v>
+      </c>
+      <c r="G2" s="43">
+        <f>Summary!$D$3</f>
+        <v>0.84027360892539138</v>
+      </c>
+      <c r="H2" s="62">
+        <f>Summary!$E$3</f>
+        <v>0.89843040357971071</v>
+      </c>
+      <c r="I2" s="63">
+        <f>Summary!$F$3</f>
+        <v>0.89943787070972747</v>
+      </c>
+      <c r="J2" s="63">
+        <f>Summary!$G$3</f>
+        <v>0.89947903213847469</v>
+      </c>
+      <c r="K2" s="63">
+        <f>Summary!$H$3</f>
+        <v>0.92448668561480107</v>
+      </c>
+      <c r="L2" s="63">
+        <f>Summary!$I$3</f>
+        <v>0.92220901797165855</v>
+      </c>
+      <c r="M2" s="63">
+        <f>Summary!$J$3</f>
+        <v>0.92220901797165855</v>
+      </c>
+      <c r="N2" s="63">
+        <f>Summary!$K$3</f>
+        <v>0.92220901797165855</v>
+      </c>
+      <c r="O2" s="63">
+        <f>Summary!$L$3</f>
+        <v>0.92220901797165855</v>
+      </c>
+      <c r="P2" s="63">
+        <f>Summary!$M$3</f>
+        <v>0.92220901797165855</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" s="44" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2064905500</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2740380825</v>
+      </c>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+    </row>
+    <row r="5" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1175022500</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1323836100</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+    </row>
+    <row r="6" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2299050000</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2416950000</v>
+      </c>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+    </row>
+    <row r="7" spans="2:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="8">
+        <v>635040000</v>
+      </c>
+      <c r="G7" s="8">
+        <v>647640000</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+    </row>
+    <row r="8" spans="2:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9">
+        <f>SUBTOTAL(109,Table4[2022])</f>
+        <v>6174018000</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUBTOTAL(109,Table4[2023])</f>
+        <v>7128806925</v>
+      </c>
+      <c r="H8" s="81">
+        <f>Table4[[#Totals],[2023]]+(H2-G2)*100*$I$11</f>
+        <v>9491677710.0826931</v>
+      </c>
+      <c r="I8" s="82">
+        <f>Table4[[#Totals],[2024]]+(I2-H2)*100*$I$11</f>
+        <v>9532610410.4248867</v>
+      </c>
+      <c r="J8" s="82">
+        <f>Table4[[#Totals],[2025]]+(J2-I2)*100*$I$11</f>
+        <v>9534282771.1187172</v>
+      </c>
+      <c r="K8" s="82">
+        <f>Table4[[#Totals],[2026]]+(K2-J2)*100*$I$11</f>
+        <v>10550326625.562725</v>
+      </c>
+      <c r="L8" s="82">
+        <f>Table4[[#Totals],[2027]]+(L2-K2)*100*$I$11</f>
+        <v>10457786547.243435</v>
+      </c>
+      <c r="M8" s="82">
+        <f>Table4[[#Totals],[2028]]+(M2-L2)*100*$I$11</f>
+        <v>10457786547.243435</v>
+      </c>
+      <c r="N8" s="82">
+        <f>Table4[[#Totals],[2029]]+(N2-M2)*100*$I$11</f>
+        <v>10457786547.243435</v>
+      </c>
+      <c r="O8" s="82">
+        <f>Table4[[#Totals],[2030]]+(O2-N2)*100*$I$11</f>
+        <v>10457786547.243435</v>
+      </c>
+      <c r="P8" s="82">
+        <f>Table4[[#Totals],[2031]]+(P2-O2)*100*$I$11</f>
+        <v>10457786547.243435</v>
+      </c>
+      <c r="Q8" s="79"/>
+    </row>
+    <row r="9" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+    </row>
+    <row r="10" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="H10" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+    </row>
+    <row r="11" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="H11" s="75">
+        <f>Table4[[#Totals],[2023]]-Table4[[#Totals],[2022]]</f>
+        <v>954788925</v>
+      </c>
+      <c r="I11" s="76">
+        <f>H11/(H10*100)</f>
+        <v>406293159.57446808</v>
+      </c>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+    </row>
+    <row r="12" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+    </row>
+    <row r="13" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="56">
+        <v>3533403600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+  </headerFooter>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{EC1C1B45-CED4-4748-8DA8-96829A57837B}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Parkir!C8:P8</xm:f>
+              <xm:sqref>Q8</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E40E5B-4418-7F4C-8463-249250AB3F7E}">
   <sheetPr>
@@ -12096,8 +12732,8 @@
   </sheetPr>
   <dimension ref="B3:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView showGridLines="0" zoomScale="159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12193,31 +12829,31 @@
         <v>212032230069.90952</v>
       </c>
       <c r="E5" s="33">
-        <v>227191931124.88779</v>
+        <v>226133977884.88779</v>
       </c>
       <c r="F5" s="33">
-        <v>227465547284.88779</v>
+        <v>226054942964.88779</v>
       </c>
       <c r="G5" s="33">
-        <v>226782724284.88779</v>
+        <v>225292846164.88779</v>
       </c>
       <c r="H5" s="33">
-        <v>233231321164.88779</v>
+        <v>232154544244.88779</v>
       </c>
       <c r="I5" s="33">
-        <v>233013231109.84375</v>
+        <v>231460133289.84375</v>
       </c>
       <c r="J5" s="33">
-        <v>233453759109.84375</v>
+        <v>231460133289.84375</v>
       </c>
       <c r="K5" s="33">
-        <v>233453759109.84375</v>
+        <v>231460133289.84375</v>
       </c>
       <c r="L5" s="33">
-        <v>233453759109.84375</v>
+        <v>231460133289.84375</v>
       </c>
       <c r="M5" s="33">
-        <v>233453759109.84375</v>
+        <v>231460133289.84375</v>
       </c>
       <c r="N5" s="38"/>
     </row>
@@ -12232,31 +12868,31 @@
         <v>45569654280.523056</v>
       </c>
       <c r="E6" s="33">
-        <v>50196804078.714592</v>
+        <v>49989633078.714592</v>
       </c>
       <c r="F6" s="33">
-        <v>50700968574.41803</v>
+        <v>50424740574.41803</v>
       </c>
       <c r="G6" s="33">
-        <v>50703218574.41803</v>
+        <v>50426990574.41803</v>
       </c>
       <c r="H6" s="33">
-        <v>53108425461.528358</v>
+        <v>52994597261.528358</v>
       </c>
       <c r="I6" s="33">
-        <v>53469076758.198814</v>
+        <v>53262539158.198814</v>
       </c>
       <c r="J6" s="33">
-        <v>53557182358.198814</v>
+        <v>53262539158.198814</v>
       </c>
       <c r="K6" s="33">
-        <v>54765116257.854462</v>
+        <v>54456661657.854462</v>
       </c>
       <c r="L6" s="33">
-        <v>55167760891.073013</v>
+        <v>54854702491.073013</v>
       </c>
       <c r="M6" s="33">
-        <v>55167760891.073013</v>
+        <v>54854702491.073013</v>
       </c>
       <c r="N6" s="39"/>
     </row>
@@ -12271,31 +12907,31 @@
         <v>257601884350.43256</v>
       </c>
       <c r="E7" s="35">
-        <v>277388735203.60236</v>
+        <v>276123610963.60236</v>
       </c>
       <c r="F7" s="35">
-        <v>278166515859.30579</v>
+        <v>276479683539.30579</v>
       </c>
       <c r="G7" s="35">
-        <v>277485942859.30579</v>
+        <v>275719836739.30579</v>
       </c>
       <c r="H7" s="35">
-        <v>286339746626.41614</v>
+        <v>285149141506.41614</v>
       </c>
       <c r="I7" s="35">
-        <v>286482307868.04254</v>
+        <v>284722672448.04254</v>
       </c>
       <c r="J7" s="35">
-        <v>287010941468.04254</v>
+        <v>284722672448.04254</v>
       </c>
       <c r="K7" s="35">
-        <v>288218875367.69824</v>
+        <v>285916794947.69824</v>
       </c>
       <c r="L7" s="35">
-        <v>288621520000.91675</v>
+        <v>286314835780.91675</v>
       </c>
       <c r="M7" s="35">
-        <v>288621520000.91675</v>
+        <v>286314835780.91675</v>
       </c>
       <c r="N7" s="40"/>
     </row>
@@ -12304,37 +12940,37 @@
         <v>67</v>
       </c>
       <c r="C8" s="32">
-        <v>48983.682842773262</v>
+        <v>48982.76617610659</v>
       </c>
       <c r="D8" s="33">
-        <v>51034.75524378995</v>
+        <v>51035.255243789958</v>
       </c>
       <c r="E8" s="33">
-        <v>54796.683823958658</v>
+        <v>54567.49382395867</v>
       </c>
       <c r="F8" s="33">
-        <v>54934.603823958656</v>
+        <v>54628.683823958658</v>
       </c>
       <c r="G8" s="33">
-        <v>54936.853823958656</v>
+        <v>54631.183823958658</v>
       </c>
       <c r="H8" s="33">
-        <v>56271.42715729199</v>
+        <v>56150.060490625328</v>
       </c>
       <c r="I8" s="33">
-        <v>56224.032991632623</v>
+        <v>56011.72299163264</v>
       </c>
       <c r="J8" s="33">
-        <v>56315.642991632631</v>
+        <v>56011.72299163264</v>
       </c>
       <c r="K8" s="33">
-        <v>56315.642991632631</v>
+        <v>56011.72299163264</v>
       </c>
       <c r="L8" s="33">
-        <v>56315.642991632631</v>
+        <v>56011.72299163264</v>
       </c>
       <c r="M8" s="33">
-        <v>56315.642991632631</v>
+        <v>56011.72299163264</v>
       </c>
       <c r="N8" s="39"/>
     </row>
@@ -12343,41 +12979,75 @@
         <v>68</v>
       </c>
       <c r="C9" s="36">
-        <v>0.80649534844370618</v>
+        <v>0.80648025591983208</v>
       </c>
       <c r="D9" s="37">
-        <v>0.84026537663964185</v>
+        <v>0.84027360892539138</v>
       </c>
       <c r="E9" s="37">
-        <v>0.90220391872154071</v>
+        <v>0.89843040357971071</v>
       </c>
       <c r="F9" s="37">
-        <v>0.9044747124226673</v>
+        <v>0.89943787070972747</v>
       </c>
       <c r="G9" s="37">
-        <v>0.90451175770853975</v>
+        <v>0.89947903213847469</v>
       </c>
       <c r="H9" s="37">
-        <v>0.92648493577571611</v>
+        <v>0.92448668561480107</v>
       </c>
       <c r="I9" s="37">
-        <v>0.92570461114658731</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="J9" s="37">
-        <v>0.92721293054160059</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="K9" s="37">
-        <v>0.92721293054160059</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="L9" s="37">
-        <v>0.92721293054160059</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="M9" s="37">
-        <v>0.92721293054160059</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="111">
+        <v>248951980320.72696</v>
+      </c>
+      <c r="D10" s="111">
+        <v>257601884350.43256</v>
+      </c>
+      <c r="E10" s="111">
+        <v>277388735203.60236</v>
+      </c>
+      <c r="F10" s="111">
+        <v>278166515859.30579</v>
+      </c>
+      <c r="G10" s="111">
+        <v>277485942859.30579</v>
+      </c>
+      <c r="H10" s="111">
+        <v>287397013826.41614</v>
+      </c>
+      <c r="I10" s="111">
+        <v>287010941468.04254</v>
+      </c>
+      <c r="J10" s="111">
+        <v>287010941468.04254</v>
+      </c>
+      <c r="K10" s="111">
+        <v>288218875367.69824</v>
+      </c>
+      <c r="L10" s="111">
+        <v>288621520000.91675</v>
+      </c>
+      <c r="M10" s="111">
+        <v>288621520000.91675</v>
+      </c>
+    </row>
     <row r="11" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="29"/>
@@ -12730,6 +13400,344 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3245DEC7-2209-0F42-BD2A-95C3CA7667E1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B3:N9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="29"/>
+    <col min="3" max="13" width="17.83203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6">
+        <v>9</v>
+      </c>
+      <c r="M3" s="6">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="31">
+        <v>44926</v>
+      </c>
+      <c r="D4" s="31">
+        <v>45291</v>
+      </c>
+      <c r="E4" s="31">
+        <v>45657</v>
+      </c>
+      <c r="F4" s="31">
+        <v>46022</v>
+      </c>
+      <c r="G4" s="31">
+        <v>46387</v>
+      </c>
+      <c r="H4" s="31">
+        <v>46752</v>
+      </c>
+      <c r="I4" s="31">
+        <v>47118</v>
+      </c>
+      <c r="J4" s="31">
+        <v>47483</v>
+      </c>
+      <c r="K4" s="31">
+        <v>47848</v>
+      </c>
+      <c r="L4" s="31">
+        <v>48213</v>
+      </c>
+      <c r="M4" s="31">
+        <v>48579</v>
+      </c>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="32">
+        <v>205647908168.79742</v>
+      </c>
+      <c r="D5" s="33">
+        <v>212032230069.90952</v>
+      </c>
+      <c r="E5" s="33">
+        <v>227191931124.88779</v>
+      </c>
+      <c r="F5" s="33">
+        <v>227465547284.88779</v>
+      </c>
+      <c r="G5" s="33">
+        <v>226782724284.88779</v>
+      </c>
+      <c r="H5" s="33">
+        <v>234112377164.88779</v>
+      </c>
+      <c r="I5" s="33">
+        <v>233453759109.84375</v>
+      </c>
+      <c r="J5" s="33">
+        <v>233453759109.84375</v>
+      </c>
+      <c r="K5" s="33">
+        <v>233453759109.84375</v>
+      </c>
+      <c r="L5" s="33">
+        <v>233453759109.84375</v>
+      </c>
+      <c r="M5" s="33">
+        <v>233453759109.84375</v>
+      </c>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="32">
+        <v>43304072151.929543</v>
+      </c>
+      <c r="D6" s="33">
+        <v>45569654280.523056</v>
+      </c>
+      <c r="E6" s="33">
+        <v>50196804078.714592</v>
+      </c>
+      <c r="F6" s="33">
+        <v>50700968574.41803</v>
+      </c>
+      <c r="G6" s="33">
+        <v>50703218574.41803</v>
+      </c>
+      <c r="H6" s="33">
+        <v>53284636661.528358</v>
+      </c>
+      <c r="I6" s="33">
+        <v>53557182358.198814</v>
+      </c>
+      <c r="J6" s="33">
+        <v>53557182358.198814</v>
+      </c>
+      <c r="K6" s="33">
+        <v>54765116257.854462</v>
+      </c>
+      <c r="L6" s="33">
+        <v>55167760891.073013</v>
+      </c>
+      <c r="M6" s="33">
+        <v>55167760891.073013</v>
+      </c>
+      <c r="N6" s="39"/>
+    </row>
+    <row r="7" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="34">
+        <v>248951980320.72696</v>
+      </c>
+      <c r="D7" s="35">
+        <v>257601884350.43256</v>
+      </c>
+      <c r="E7" s="35">
+        <v>277388735203.60236</v>
+      </c>
+      <c r="F7" s="35">
+        <v>278166515859.30579</v>
+      </c>
+      <c r="G7" s="35">
+        <v>277485942859.30579</v>
+      </c>
+      <c r="H7" s="35">
+        <v>287397013826.41614</v>
+      </c>
+      <c r="I7" s="35">
+        <v>287010941468.04254</v>
+      </c>
+      <c r="J7" s="35">
+        <v>287010941468.04254</v>
+      </c>
+      <c r="K7" s="35">
+        <v>288218875367.69824</v>
+      </c>
+      <c r="L7" s="35">
+        <v>288621520000.91675</v>
+      </c>
+      <c r="M7" s="35">
+        <v>288621520000.91675</v>
+      </c>
+      <c r="N7" s="40"/>
+    </row>
+    <row r="8" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="32">
+        <v>48983.76617610659</v>
+      </c>
+      <c r="D8" s="33">
+        <v>51036.255243789958</v>
+      </c>
+      <c r="E8" s="33">
+        <v>54798.683823958658</v>
+      </c>
+      <c r="F8" s="33">
+        <v>54936.603823958663</v>
+      </c>
+      <c r="G8" s="33">
+        <v>54939.103823958663</v>
+      </c>
+      <c r="H8" s="33">
+        <v>56457.980490625334</v>
+      </c>
+      <c r="I8" s="33">
+        <v>56319.642991632638</v>
+      </c>
+      <c r="J8" s="33">
+        <v>56319.642991632638</v>
+      </c>
+      <c r="K8" s="33">
+        <v>56319.642991632638</v>
+      </c>
+      <c r="L8" s="33">
+        <v>56319.642991632638</v>
+      </c>
+      <c r="M8" s="33">
+        <v>56319.642991632638</v>
+      </c>
+      <c r="N8" s="39"/>
+    </row>
+    <row r="9" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.80649672049133092</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.84029007349689022</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0.90223684786453839</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.90450764156566521</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.90454880299441243</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0.92955645647073892</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0.92727878882759629</v>
+      </c>
+      <c r="J9" s="37">
+        <v>0.92727878882759629</v>
+      </c>
+      <c r="K9" s="37">
+        <v>0.92727878882759629</v>
+      </c>
+      <c r="L9" s="37">
+        <v>0.92727878882759629</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.92727878882759629</v>
+      </c>
+      <c r="N9" s="41"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.2" bottom="0.2" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C71BF03F-71C7-CA48-A8E0-2F94EBAEAF89}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5062C0F-26F7-5E42-81F8-C83CEA16F2A6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13422,15 +14430,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325B429D-3330-E149-8349-7722C11EEA82}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Q42"/>
+  <dimension ref="B2:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13507,60 +14515,60 @@
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <f t="shared" ref="C4:E4" si="0">$C$10</f>
-        <v>8071906956</v>
+        <f>$C$9</f>
+        <v>7382584356</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" si="0"/>
-        <v>8071906956</v>
+        <f t="shared" ref="D4:E4" si="0">$C$9</f>
+        <v>7382584356</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" si="0"/>
-        <v>8071906956</v>
+        <v>7382584356</v>
       </c>
       <c r="F4" s="8">
-        <f>$C$10</f>
-        <v>8071906956</v>
+        <f>$C$13</f>
+        <v>8199964357.2000008</v>
       </c>
       <c r="G4" s="8">
-        <f>$C$14</f>
-        <v>8896666956</v>
+        <f>$C$17</f>
+        <v>9017344357.2000008</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:P4" si="1">$C$14</f>
-        <v>8896666956</v>
+        <f>$C$17</f>
+        <v>9017344357.2000008</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" si="1"/>
-        <v>8896666956</v>
+        <f>$C$17</f>
+        <v>9017344357.2000008</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="1"/>
-        <v>8896666956</v>
+        <f>$C$17</f>
+        <v>9017344357.2000008</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" si="1"/>
-        <v>8896666956</v>
+        <f>$C$17</f>
+        <v>9017344357.2000008</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" si="1"/>
-        <v>8896666956</v>
+        <f>$C$17</f>
+        <v>9017344357.2000008</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" si="1"/>
-        <v>8896666956</v>
+        <f>$C$17</f>
+        <v>9017344357.2000008</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" si="1"/>
-        <v>8896666956</v>
+        <f>$C$17</f>
+        <v>9017344357.2000008</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="1"/>
-        <v>8896666956</v>
+        <f>$C$17</f>
+        <v>9017344357.2000008</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" si="1"/>
-        <v>8896666956</v>
+        <f>$C$17</f>
+        <v>9017344357.2000008</v>
       </c>
       <c r="Q4" s="38"/>
     </row>
@@ -13580,7 +14588,7 @@
       </c>
       <c r="G5" s="46">
         <f>G4-F4</f>
-        <v>824760000</v>
+        <v>817380000</v>
       </c>
       <c r="H5" s="46">
         <v>0</v>
@@ -13628,81 +14636,131 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="B7" s="53" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="47">
-        <v>2022</v>
-      </c>
+      <c r="B8" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="8">
+        <v>615215363</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="8">
+        <f>C8*12</f>
+        <v>7382584356</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="47">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="8">
-        <v>672658913</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="8">
-        <f>C9*12</f>
-        <v>8071906956</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="53" t="s">
-        <v>61</v>
+      <c r="C12" s="8">
+        <f>(751445363.1+615215363.1)/2</f>
+        <v>683330363.10000002</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="8">
+        <f>C12*12</f>
+        <v>8199964357.2000008</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="8">
-        <v>741388913</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="42" t="s">
+      <c r="C16" s="8">
+        <f>751445363.1</f>
+        <v>751445363.10000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="9">
-        <f>C13*12</f>
-        <v>8896666956</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C17" s="9">
+        <f>C16*12</f>
+        <v>9017344357.2000008</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13741,15 +14799,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A00E9C-8872-7E47-90FB-465B0FC6A751}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView showGridLines="0" zoomScale="174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13843,39 +14901,39 @@
       </c>
       <c r="H4" s="8">
         <f>Table36712[[#This Row],[2023]]+H5</f>
-        <v>5000000000</v>
+        <v>5500000000</v>
       </c>
       <c r="I4" s="8">
         <f>Table36712[[#This Row],[2024]]+I5</f>
-        <v>5500000000</v>
+        <v>6000000000</v>
       </c>
       <c r="J4" s="8">
         <f>Table36712[[#This Row],[2025]]+J5</f>
-        <v>6000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="K4" s="8">
         <f>Table36712[[#This Row],[2026]]+K5</f>
-        <v>6500000000</v>
+        <v>7500000000</v>
       </c>
       <c r="L4" s="8">
         <f>Table36712[[#This Row],[2027]]+L5</f>
-        <v>7000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="M4" s="8">
         <f>Table36712[[#This Row],[2028]]+M5</f>
-        <v>7500000000</v>
+        <v>8500000000</v>
       </c>
       <c r="N4" s="8">
         <f>Table36712[[#This Row],[2029]]+N5</f>
-        <v>8000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="O4" s="8">
         <f>Table36712[[#This Row],[2030]]+O5</f>
-        <v>8000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="P4" s="8">
         <f>Table36712[[#This Row],[2031]]+P5</f>
-        <v>8000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="Q4" s="38"/>
     </row>
@@ -13899,13 +14957,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="46">
-        <v>500000000</v>
+        <v>1000000000</v>
       </c>
       <c r="I5" s="46">
         <v>500000000</v>
       </c>
       <c r="J5" s="46">
-        <v>500000000</v>
+        <v>1000000000</v>
       </c>
       <c r="K5" s="46">
         <v>500000000</v>
@@ -14168,15 +15226,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3045D45-7987-9842-B24D-05BDE99845CC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14266,7 +15324,7 @@
       </c>
       <c r="G4" s="8">
         <f>Table36710[[#This Row],[2022]]+G5</f>
-        <v>8000000000</v>
+        <v>8500000000</v>
       </c>
       <c r="H4" s="8">
         <f>Table36710[[#This Row],[2023]]+H5</f>
@@ -14274,23 +15332,23 @@
       </c>
       <c r="I4" s="8">
         <f>Table36710[[#This Row],[2024]]+I5</f>
-        <v>9000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="J4" s="8">
         <f>Table36710[[#This Row],[2025]]+J5</f>
-        <v>10000000000</v>
+        <v>10500000000</v>
       </c>
       <c r="K4" s="8">
         <f>Table36710[[#This Row],[2026]]+K5</f>
-        <v>10000000000</v>
+        <v>11000000000</v>
       </c>
       <c r="L4" s="8">
         <f>Table36710[[#This Row],[2027]]+L5</f>
-        <v>11000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="M4" s="8">
         <f>Table36710[[#This Row],[2028]]+M5</f>
-        <v>11000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="N4" s="8">
         <f>Table36710[[#This Row],[2029]]+N5</f>
@@ -14302,7 +15360,7 @@
       </c>
       <c r="P4" s="8">
         <f>Table36710[[#This Row],[2031]]+P5</f>
-        <v>13000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="Q4" s="38"/>
     </row>
@@ -14321,19 +15379,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="46">
-        <v>0</v>
+        <v>500000000</v>
       </c>
       <c r="H5" s="46">
+        <v>500000000</v>
+      </c>
+      <c r="I5" s="46">
         <v>1000000000</v>
       </c>
-      <c r="I5" s="46">
-        <v>0</v>
-      </c>
       <c r="J5" s="46">
-        <v>1000000000</v>
+        <v>500000000</v>
       </c>
       <c r="K5" s="46">
-        <v>0</v>
+        <v>500000000</v>
       </c>
       <c r="L5" s="46">
         <v>1000000000</v>
@@ -14342,13 +15400,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="46">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="46">
         <v>0</v>
       </c>
       <c r="P5" s="46">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="41"/>
     </row>
@@ -14408,7 +15466,7 @@
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="D5:G5 D4:E4 G4:P4 K5 M5" calculatedColumn="1"/>
+    <ignoredError sqref="D5:F5 D4:E4 G4:P4 M5" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -14438,15 +15496,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07B7CA7-5E65-4363-95E1-F36222B8A808}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AL40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q14"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14468,47 +15526,47 @@
       </c>
       <c r="F2" s="43">
         <f>Summary!$C$3</f>
-        <v>0.80649534844370618</v>
+        <v>0.80648025591983208</v>
       </c>
       <c r="G2" s="62">
         <f>Summary!$D$3</f>
-        <v>0.84026537663964185</v>
+        <v>0.84027360892539138</v>
       </c>
       <c r="H2" s="63">
         <f>Summary!$E$3</f>
-        <v>0.90220391872154071</v>
+        <v>0.89843040357971071</v>
       </c>
       <c r="I2" s="63">
         <f>Summary!$F$3</f>
-        <v>0.9044747124226673</v>
+        <v>0.89943787070972747</v>
       </c>
       <c r="J2" s="63">
         <f>Summary!$G$3</f>
-        <v>0.90451175770853975</v>
+        <v>0.89947903213847469</v>
       </c>
       <c r="K2" s="63">
         <f>Summary!$H$3</f>
-        <v>0.92648493577571611</v>
+        <v>0.92448668561480107</v>
       </c>
       <c r="L2" s="63">
         <f>Summary!$I$3</f>
-        <v>0.92570461114658731</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="M2" s="63">
         <f>Summary!$J$3</f>
-        <v>0.92721293054160059</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="N2" s="63">
         <f>Summary!$K$3</f>
-        <v>0.92721293054160059</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="O2" s="63">
         <f>Summary!$L$3</f>
-        <v>0.92721293054160059</v>
+        <v>0.92220901797165855</v>
       </c>
       <c r="P2" s="63">
         <f>Summary!$M$3</f>
-        <v>0.92721293054160059</v>
+        <v>0.92220901797165855</v>
       </c>
     </row>
     <row r="3" spans="2:38" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14597,39 +15655,39 @@
       </c>
       <c r="H4" s="67">
         <f>Table36[[#This Row],[2023]]+(H2-G2)*100*$H$9</f>
-        <v>19689295616.715302</v>
+        <v>19488442332.488911</v>
       </c>
       <c r="I4" s="67">
         <f>Table36[[#This Row],[2024]]+(I2-H2)*100*$H$9</f>
-        <v>19809900279.349739</v>
+        <v>19541950158.087807</v>
       </c>
       <c r="J4" s="67">
         <f>Table36[[#This Row],[2025]]+(J2-I2)*100*$H$9</f>
-        <v>19811867800.310638</v>
+        <v>19544136292.488808</v>
       </c>
       <c r="K4" s="67">
         <f>Table36[[#This Row],[2026]]+(K2-J2)*100*$H$9</f>
-        <v>20978890470.174236</v>
+        <v>20872323705.240086</v>
       </c>
       <c r="L4" s="67">
         <f>Table36[[#This Row],[2027]]+(L2-K2)*100*$H$9</f>
-        <v>20937446463.792358</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="M4" s="67">
         <f>Table36[[#This Row],[2028]]+(M2-L2)*100*$H$9</f>
-        <v>21017555172.782658</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="N4" s="67">
         <f>Table36[[#This Row],[2029]]+(N2-M2)*100*$H$9</f>
-        <v>21017555172.782658</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="O4" s="67">
         <f>Table36[[#This Row],[2030]]+(O2-N2)*100*$H$9</f>
-        <v>21017555172.782658</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="P4" s="67">
         <f>Table36[[#This Row],[2031]]+(P2-O2)*100*$H$9</f>
-        <v>21017555172.782658</v>
+        <v>20751353959.041523</v>
       </c>
       <c r="Q4" s="79"/>
       <c r="W4" s="45"/>
@@ -15991,15 +17049,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B6DC12-7A07-CD4B-A996-3D5288B26601}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:Q15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q15"/>
+    <sheetView showGridLines="0" zoomScale="173" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16356,361 +17414,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DFD6F6-6879-5349-9B08-2B5BECC68B7E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:Q14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="7.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16" width="17.5" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E2" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="43">
-        <f>Summary!$C$3</f>
-        <v>0.80649534844370618</v>
-      </c>
-      <c r="G2" s="43">
-        <f>Summary!$D$3</f>
-        <v>0.84026537663964185</v>
-      </c>
-      <c r="H2" s="62">
-        <f>Summary!$E$3</f>
-        <v>0.90220391872154071</v>
-      </c>
-      <c r="I2" s="63">
-        <f>Summary!$F$3</f>
-        <v>0.9044747124226673</v>
-      </c>
-      <c r="J2" s="63">
-        <f>Summary!$G$3</f>
-        <v>0.90451175770853975</v>
-      </c>
-      <c r="K2" s="63">
-        <f>Summary!$H$3</f>
-        <v>0.92648493577571611</v>
-      </c>
-      <c r="L2" s="63">
-        <f>Summary!$I$3</f>
-        <v>0.92570461114658731</v>
-      </c>
-      <c r="M2" s="63">
-        <f>Summary!$J$3</f>
-        <v>0.92721293054160059</v>
-      </c>
-      <c r="N2" s="63">
-        <f>Summary!$K$3</f>
-        <v>0.92721293054160059</v>
-      </c>
-      <c r="O2" s="63">
-        <f>Summary!$L$3</f>
-        <v>0.92721293054160059</v>
-      </c>
-      <c r="P2" s="63">
-        <f>Summary!$M$3</f>
-        <v>0.92721293054160059</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" s="44" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2064905500</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2740380825</v>
-      </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-    </row>
-    <row r="5" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1175022500</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1323836100</v>
-      </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-    </row>
-    <row r="6" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2299050000</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2416950000</v>
-      </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-    </row>
-    <row r="7" spans="2:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="8">
-        <v>635040000</v>
-      </c>
-      <c r="G7" s="8">
-        <v>647640000</v>
-      </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-    </row>
-    <row r="8" spans="2:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9">
-        <f>SUBTOTAL(109,Table4[2022])</f>
-        <v>6174018000</v>
-      </c>
-      <c r="G8" s="9">
-        <f>SUBTOTAL(109,Table4[2023])</f>
-        <v>7128806925</v>
-      </c>
-      <c r="H8" s="81">
-        <f>Table4[[#Totals],[2023]]+(H2-G2)*100*$I$11</f>
-        <v>9645327521.1890831</v>
-      </c>
-      <c r="I8" s="82">
-        <f>Table4[[#Totals],[2024]]+(I2-H2)*100*$I$11</f>
-        <v>9737588315.9463348</v>
-      </c>
-      <c r="J8" s="82">
-        <f>Table4[[#Totals],[2025]]+(J2-I2)*100*$I$11</f>
-        <v>9739093440.5707798</v>
-      </c>
-      <c r="K8" s="82">
-        <f>Table4[[#Totals],[2026]]+(K2-J2)*100*$I$11</f>
-        <v>10631848634.851328</v>
-      </c>
-      <c r="L8" s="82">
-        <f>Table4[[#Totals],[2027]]+(L2-K2)*100*$I$11</f>
-        <v>10600144578.945076</v>
-      </c>
-      <c r="M8" s="82">
-        <f>Table4[[#Totals],[2028]]+(M2-L2)*100*$I$11</f>
-        <v>10661426564.209816</v>
-      </c>
-      <c r="N8" s="82">
-        <f>Table4[[#Totals],[2029]]+(N2-M2)*100*$I$11</f>
-        <v>10661426564.209816</v>
-      </c>
-      <c r="O8" s="82">
-        <f>Table4[[#Totals],[2030]]+(O2-N2)*100*$I$11</f>
-        <v>10661426564.209816</v>
-      </c>
-      <c r="P8" s="82">
-        <f>Table4[[#Totals],[2031]]+(P2-O2)*100*$I$11</f>
-        <v>10661426564.209816</v>
-      </c>
-      <c r="Q8" s="79"/>
-    </row>
-    <row r="9" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-    </row>
-    <row r="10" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="H10" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-    </row>
-    <row r="11" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="H11" s="75">
-        <f>Table4[[#Totals],[2023]]-Table4[[#Totals],[2022]]</f>
-        <v>954788925</v>
-      </c>
-      <c r="I11" s="76">
-        <f>H11/(H10*100)</f>
-        <v>406293159.57446808</v>
-      </c>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-    </row>
-    <row r="12" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-    </row>
-    <row r="13" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="78" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
-  </headerFooter>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
-      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{EC1C1B45-CED4-4748-8DA8-96829A57837B}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Parkir!C8:P8</xm:f>
-              <xm:sqref>Q8</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-      </x14:sparklineGroups>
-    </ext>
-  </extLst>
-</worksheet>
 </file>